--- a/dataset/2nd_data/kim/kim_env_detail_data.xlsx
+++ b/dataset/2nd_data/kim/kim_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT143"/>
+  <dimension ref="A1:CA143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,47 +684,82 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>일출부터12시까지평균온도</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(상위)</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>야간평균온도</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>일몰일출적합증산(HD)누적시간</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>야간평균습도</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>시간당5도이상의변화수</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>주간평균습도</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>오후부터일몰까지평균습도</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>일출부터12시까지평균습도</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차이</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>주야간습도차이</t>
         </is>
       </c>
     </row>
@@ -919,31 +954,52 @@
         <v>11.4276247030879</v>
       </c>
       <c r="BL2" t="n">
+        <v>4.762908587257619</v>
+      </c>
+      <c r="BM2" t="n">
         <v>8</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>-19</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>-4.300000000000001</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>-2.427071320182099</v>
       </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
       <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>62.01792109256444</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>336</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>47.15177976952637</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>36.27522565320675</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>59.82650969529111</v>
+      </c>
+      <c r="BY2" t="n">
         <v>10.76182164028455</v>
       </c>
-      <c r="BT2" t="n">
-        <v>0</v>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-14.86614132303807</v>
       </c>
     </row>
     <row r="3">
@@ -1137,31 +1193,52 @@
         <v>18.51201923076923</v>
       </c>
       <c r="BL3" t="n">
+        <v>2.646424581005586</v>
+      </c>
+      <c r="BM3" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>0.6900000000000004</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>4.609999999999999</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>-21.19</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>-2.32647149460709</v>
       </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
       <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>61.70191063174121</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>361</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>50.76728331177253</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>43.45165865384627</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>59.27128491620125</v>
+      </c>
+      <c r="BY3" t="n">
         <v>13.48899413367568</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BZ3" t="n">
         <v>1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>-10.93462731996868</v>
       </c>
     </row>
     <row r="4">
@@ -1355,31 +1432,52 @@
         <v>18.35757211538461</v>
       </c>
       <c r="BL4" t="n">
+        <v>3.565530726256987</v>
+      </c>
+      <c r="BM4" t="n">
         <v>5.116666666666666</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>0.71</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>4.09</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>-22</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>-1.978619631901839</v>
       </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
       <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>63.48607361963195</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>368</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>49.20716688227709</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>42.46891826923089</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>57.03008379888284</v>
+      </c>
+      <c r="BY4" t="n">
         <v>13.48121989063408</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BZ4" t="n">
         <v>2</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>-14.27890673735487</v>
       </c>
     </row>
     <row r="5">
@@ -1573,31 +1671,52 @@
         <v>22.34844124700241</v>
       </c>
       <c r="BL5" t="n">
+        <v>3.70060941828255</v>
+      </c>
+      <c r="BM5" t="n">
         <v>1.45</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>5.6</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>-22.09</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>-1.157663125948406</v>
       </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
       <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>60.63845220030371</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>396</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>50.73646074646099</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>44.44146282973635</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>58.00288088642677</v>
+      </c>
+      <c r="BY5" t="n">
         <v>14.84005694834225</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BZ5" t="n">
         <v>3</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-9.901991453842719</v>
       </c>
     </row>
     <row r="6">
@@ -1791,31 +1910,52 @@
         <v>22.82799522673032</v>
       </c>
       <c r="BL6" t="n">
+        <v>4.278551532033426</v>
+      </c>
+      <c r="BM6" t="n">
         <v>4.3</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>0.7900000000000005</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>7.1</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>-20.69</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>5.289999999999999</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>1.575548686244205</v>
       </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
       <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>68.66899536321489</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>403</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>52.48266409266431</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>47.3269451073987</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>58.4984401114208</v>
+      </c>
+      <c r="BY6" t="n">
         <v>12.68086058016509</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BZ6" t="n">
         <v>4</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-16.18633127055058</v>
       </c>
     </row>
     <row r="7">
@@ -2009,31 +2149,52 @@
         <v>22.20889952153108</v>
       </c>
       <c r="BL7" t="n">
+        <v>7.595983379501376</v>
+      </c>
+      <c r="BM7" t="n">
         <v>16.01666666666667</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>-16.4</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>6</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>3.972179289026276</v>
       </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
       <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>73.08500772797537</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>320</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>61.34014138817485</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>52.98294258373212</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>71.0118005540167</v>
+      </c>
+      <c r="BY7" t="n">
         <v>11.45915747189918</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BZ7" t="n">
         <v>5</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>-11.74486633980052</v>
       </c>
     </row>
     <row r="8">
@@ -2227,31 +2388,52 @@
         <v>20.60149643705464</v>
       </c>
       <c r="BL8" t="n">
+        <v>8.858662952646227</v>
+      </c>
+      <c r="BM8" t="n">
         <v>16.21666666666667</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>0.2000000000000002</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>2.59</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>-13.71</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>10.11292048929668</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>10.45</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
+        <v>64.34226299694194</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>166</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>61.84983311938375</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>52.76866983372934</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>72.47548746518108</v>
+      </c>
+      <c r="BY8" t="n">
         <v>5.069621230857404</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BZ8" t="n">
         <v>5</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>-2.492429877558187</v>
       </c>
     </row>
     <row r="9">
@@ -2445,31 +2627,52 @@
         <v>18.71512135922335</v>
       </c>
       <c r="BL9" t="n">
+        <v>11.77793296089385</v>
+      </c>
+      <c r="BM9" t="n">
         <v>7.5</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>-10.7</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>1.5</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>10.84946070878277</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
         <v>10.3</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
+        <v>65.31140215716462</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>154</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>57.57365409622926</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>56.30211165048539</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>59.01779329608961</v>
+      </c>
+      <c r="BY9" t="n">
         <v>4.62964202203651</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BZ9" t="n">
         <v>5</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-7.737748060935367</v>
       </c>
     </row>
     <row r="10">
@@ -2663,31 +2866,52 @@
         <v>13.38124087591243</v>
       </c>
       <c r="BL10" t="n">
+        <v>9.972659279778387</v>
+      </c>
+      <c r="BM10" t="n">
         <v>12.91666666666667</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>0.9100000000000001</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>-6.699999999999999</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>-6.210000000000001</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>11.24687975646885</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>10.95</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
+        <v>66.40911719939109</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>59</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>64.46343709468248</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>67.7856690997567</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>60.68227146814415</v>
+      </c>
+      <c r="BY10" t="n">
         <v>0.5414730321174268</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BZ10" t="n">
         <v>5</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-1.945680104708615</v>
       </c>
     </row>
     <row r="11">
@@ -2881,31 +3105,52 @@
         <v>23.9923543689321</v>
       </c>
       <c r="BL11" t="n">
+        <v>12.47457063711911</v>
+      </c>
+      <c r="BM11" t="n">
         <v>10.55</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BN11" t="n">
         <v>0.9000000000000004</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>4</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BP11" t="n">
         <v>-6.109999999999999</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BQ11" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BR11" t="n">
         <v>11.31098310291867</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
         <v>10.85</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
+        <v>63.80423963133644</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>149</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>55.53073834196917</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>51.06337378640784</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>60.62083102493092</v>
+      </c>
+      <c r="BY11" t="n">
         <v>7.294301871174723</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BZ11" t="n">
         <v>5</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>-8.273501289367267</v>
       </c>
     </row>
     <row r="12">
@@ -3099,31 +3344,52 @@
         <v>20.82934782608699</v>
       </c>
       <c r="BL12" t="n">
+        <v>14.90252777777777</v>
+      </c>
+      <c r="BM12" t="n">
         <v>9.066666666666666</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>2.59</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BP12" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>4.600000000000001</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>11.32292237442926</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>7.1</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
+        <v>70.55190258751905</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>191</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>63.27121604139735</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>62.88388888888888</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>63.69169444444455</v>
+      </c>
+      <c r="BY12" t="n">
         <v>6.736547224535876</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BZ12" t="n">
         <v>5</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>-7.280686546121707</v>
       </c>
     </row>
     <row r="13">
@@ -3317,31 +3583,52 @@
         <v>23.29807692307694</v>
       </c>
       <c r="BL13" t="n">
+        <v>15.59030470914128</v>
+      </c>
+      <c r="BM13" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>3.789999999999999</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BP13" t="n">
         <v>-5.9</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>7.590000000000003</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>11.23845801526728</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BS13" t="n">
         <v>10.91666666666667</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
+        <v>61.01948091603067</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>335</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>51.53463917525786</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>41.37920673076928</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>63.22252077562342</v>
+      </c>
+      <c r="BY13" t="n">
         <v>8.463861572361656</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BZ13" t="n">
         <v>6</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>-9.484841740772815</v>
       </c>
     </row>
     <row r="14">
@@ -3535,31 +3822,52 @@
         <v>22.67834928229668</v>
       </c>
       <c r="BL14" t="n">
+        <v>15.76997191011236</v>
+      </c>
+      <c r="BM14" t="n">
         <v>5.7</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>3.309999999999999</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BP14" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BQ14" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>11.29460218408742</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BS14" t="n">
         <v>10.68333333333333</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BT14" t="n">
+        <v>65.24433697347871</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>258</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>48.11391979301443</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>40.63693779904312</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>56.88373595505637</v>
+      </c>
+      <c r="BY14" t="n">
         <v>8.191516832730272</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BZ14" t="n">
         <v>7</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>-17.13041718046428</v>
       </c>
     </row>
     <row r="15">
@@ -3753,31 +4061,52 @@
         <v>23.42078758949884</v>
       </c>
       <c r="BL15" t="n">
+        <v>14.64454293628808</v>
+      </c>
+      <c r="BM15" t="n">
         <v>9.116666666666667</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BN15" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BO15" t="n">
         <v>2.51</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BP15" t="n">
         <v>-6.109999999999999</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BQ15" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>11.8284316770187</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BS15" t="n">
         <v>10.73333333333333</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BT15" t="n">
+        <v>68.62886645962743</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>283</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>46.12496790757402</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>39.04694510739858</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>54.2885872576179</v>
+      </c>
+      <c r="BY15" t="n">
         <v>7.529206320413994</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BZ15" t="n">
         <v>7</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>-22.50389855205341</v>
       </c>
     </row>
     <row r="16">
@@ -3971,31 +4300,52 @@
         <v>21.27381418092912</v>
       </c>
       <c r="BL16" t="n">
+        <v>13.32008450704225</v>
+      </c>
+      <c r="BM16" t="n">
         <v>16.35</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>0.9100000000000001</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>10.99498412698419</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
         <v>10.5</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
+        <v>65.98546031746037</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>82</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>60.72916120576689</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>56.03366748166269</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>66.11064788732402</v>
+      </c>
+      <c r="BY16" t="n">
         <v>6.574779962137775</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BZ16" t="n">
         <v>7</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>-5.256299111693473</v>
       </c>
     </row>
     <row r="17">
@@ -4189,31 +4539,52 @@
         <v>21.17655339805826</v>
       </c>
       <c r="BL17" t="n">
+        <v>16.58592592592593</v>
+      </c>
+      <c r="BM17" t="n">
         <v>9.966666666666667</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BN17" t="n">
         <v>1</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>2.200000000000001</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BP17" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>5.289999999999999</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>11.47134259259265</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>10.8</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
+        <v>63.81481481481477</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>176</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>47.82559055118136</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>38.66152912621371</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>58.58017094017114</v>
+      </c>
+      <c r="BY17" t="n">
         <v>7.577607538641058</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BZ17" t="n">
         <v>7</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>-15.98922426363341</v>
       </c>
     </row>
     <row r="18">
@@ -4407,31 +4778,52 @@
         <v>20.82016483516485</v>
       </c>
       <c r="BL18" t="n">
+        <v>15.27452247191013</v>
+      </c>
+      <c r="BM18" t="n">
         <v>6.966666666666667</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>2.31</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>11.73474025974033</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>10.26666666666667</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
+        <v>69.57803571428583</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>124</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>50.02713490959691</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>43.81175824175818</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>56.34530898876428</v>
+      </c>
+      <c r="BY18" t="n">
         <v>6.333646388382181</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BZ18" t="n">
         <v>7</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>-19.55090080468892</v>
       </c>
     </row>
     <row r="19">
@@ -4625,31 +5017,52 @@
         <v>20.5631730769231</v>
       </c>
       <c r="BL19" t="n">
+        <v>14.48883720930232</v>
+      </c>
+      <c r="BM19" t="n">
         <v>8.316666666666666</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BN19" t="n">
         <v>0.8899999999999988</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BP19" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>10.89696456086293</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>10.81666666666667</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BT19" t="n">
+        <v>58.29089368258887</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>159</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>49.54005270092242</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>40.55889423076921</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>60.35203488372114</v>
+      </c>
+      <c r="BY19" t="n">
         <v>6.904287086040968</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BZ19" t="n">
         <v>7</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>-8.750840981666443</v>
       </c>
     </row>
     <row r="20">
@@ -4843,31 +5256,52 @@
         <v>21.68902010050255</v>
       </c>
       <c r="BL20" t="n">
+        <v>15.7683102493075</v>
+      </c>
+      <c r="BM20" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BN20" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>4.000000000000002</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BP20" t="n">
         <v>-5.9</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BQ20" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>12.04648902821325</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
         <v>6.8</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BT20" t="n">
+        <v>70.56133228840145</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>289</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>49.63812664907681</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>45.16095477386938</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>54.51617728531875</v>
+      </c>
+      <c r="BY20" t="n">
         <v>6.821043953317211</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BZ20" t="n">
         <v>7</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>-20.92320563932464</v>
       </c>
     </row>
     <row r="21">
@@ -5061,31 +5495,52 @@
         <v>20.79676959619956</v>
       </c>
       <c r="BL21" t="n">
+        <v>14.33648199445984</v>
+      </c>
+      <c r="BM21" t="n">
         <v>17.36666666666667</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BN21" t="n">
         <v>0.6100000000000012</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BO21" t="n">
         <v>3.210000000000001</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>-4.9</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>12.83209230769233</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BT21" t="n">
+        <v>77.673276923077</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>258</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>63.10759282970544</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>55.2647505938243</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>72.21096952908586</v>
+      </c>
+      <c r="BY21" t="n">
         <v>4.976243159657347</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BZ21" t="n">
         <v>7</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>-14.56568409337156</v>
       </c>
     </row>
     <row r="22">
@@ -5279,31 +5734,52 @@
         <v>23.13171021377679</v>
       </c>
       <c r="BL22" t="n">
+        <v>15.94277310924369</v>
+      </c>
+      <c r="BM22" t="n">
         <v>16.25</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>3.59</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>-4.31</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>4.390000000000001</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>12.72764062499998</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>5.7</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
+        <v>74.82551562500021</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>155</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>56.20365508365522</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>44.68047505938244</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>69.74383753501417</v>
+      </c>
+      <c r="BY22" t="n">
         <v>7.093491936132702</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BZ22" t="n">
         <v>7</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>-18.62186054134499</v>
       </c>
     </row>
     <row r="23">
@@ -5497,31 +5973,52 @@
         <v>23.28879518072295</v>
       </c>
       <c r="BL23" t="n">
+        <v>13.55168539325842</v>
+      </c>
+      <c r="BM23" t="n">
         <v>16.9</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BN23" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BO23" t="n">
         <v>3.300000000000001</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BP23" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>6.090000000000003</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>11.60413210445468</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
         <v>10.85</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
+        <v>65.58231950844829</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>53.12781818181812</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>37.48019277108443</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>71.38407303370792</v>
+      </c>
+      <c r="BY23" t="n">
         <v>7.178400363077875</v>
       </c>
-      <c r="BT23" t="n">
+      <c r="BZ23" t="n">
         <v>7</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>-12.45450132663017</v>
       </c>
     </row>
     <row r="24">
@@ -5715,31 +6212,52 @@
         <v>24.75098795180733</v>
       </c>
       <c r="BL24" t="n">
+        <v>16.97108882521489</v>
+      </c>
+      <c r="BM24" t="n">
         <v>9.166666666666666</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BN24" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BO24" t="n">
         <v>5.699999999999999</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BP24" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BQ24" t="n">
         <v>4.789999999999999</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BR24" t="n">
         <v>11.76990430622015</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
         <v>10.45</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
+        <v>64.76116427432191</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>156</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>42.68689384010486</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>31.0610843373494</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>56.46601719197717</v>
+      </c>
+      <c r="BY24" t="n">
         <v>9.419846676741976</v>
       </c>
-      <c r="BT24" t="n">
+      <c r="BZ24" t="n">
         <v>8</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>-22.07427043421706</v>
       </c>
     </row>
     <row r="25">
@@ -5933,31 +6451,52 @@
         <v>22.66461346633423</v>
       </c>
       <c r="BL25" t="n">
+        <v>16.33302395209582</v>
+      </c>
+      <c r="BM25" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BN25" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BO25" t="n">
         <v>3.489999999999998</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BP25" t="n">
         <v>-5.609999999999999</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>13.57434782608702</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BS25" t="n">
         <v>6.05</v>
       </c>
-      <c r="BS25" t="n">
+      <c r="BT25" t="n">
+        <v>74.95057971014526</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>110</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>46.39468664850152</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>37.04027431421446</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>57.57380239520979</v>
+      </c>
+      <c r="BY25" t="n">
         <v>6.2047393673736</v>
       </c>
-      <c r="BT25" t="n">
+      <c r="BZ25" t="n">
         <v>8</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>-28.55589306164374</v>
       </c>
     </row>
     <row r="26">
@@ -6151,31 +6690,52 @@
         <v>13.03245700245702</v>
       </c>
       <c r="BL26" t="n">
+        <v>12.52932394366199</v>
+      </c>
+      <c r="BM26" t="n">
         <v>15.18333333333333</v>
       </c>
-      <c r="BM26" t="n">
+      <c r="BN26" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN26" t="n">
+      <c r="BO26" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BP26" t="n">
         <v>-4.9</v>
       </c>
-      <c r="BP26" t="n">
+      <c r="BQ26" t="n">
         <v>-10.11</v>
       </c>
-      <c r="BQ26" t="n">
+      <c r="BR26" t="n">
         <v>11.77894899536332</v>
       </c>
-      <c r="BR26" t="n">
-        <v>0</v>
-      </c>
       <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>87.61947449768181</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>80.99203679369262</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>83.28007371007371</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>78.35901408450694</v>
+      </c>
+      <c r="BY26" t="n">
         <v>1.015308560484252</v>
       </c>
-      <c r="BT26" t="n">
+      <c r="BZ26" t="n">
         <v>8</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>-6.627437703989187</v>
       </c>
     </row>
     <row r="27">
@@ -6369,31 +6929,52 @@
         <v>20.85326190476193</v>
       </c>
       <c r="BL27" t="n">
+        <v>14.82189910979227</v>
+      </c>
+      <c r="BM27" t="n">
         <v>6.166666666666667</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BN27" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="BN27" t="n">
+      <c r="BO27" t="n">
         <v>3.109999999999999</v>
       </c>
-      <c r="BO27" t="n">
+      <c r="BP27" t="n">
         <v>-5.199999999999999</v>
       </c>
-      <c r="BP27" t="n">
+      <c r="BQ27" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ27" t="n">
+      <c r="BR27" t="n">
         <v>11.45369668246452</v>
       </c>
-      <c r="BR27" t="n">
+      <c r="BS27" t="n">
         <v>8.866666666666667</v>
       </c>
-      <c r="BS27" t="n">
+      <c r="BT27" t="n">
+        <v>69.26707740916258</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>54.1711904761905</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>40.07916666666667</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>71.66189910979246</v>
+      </c>
+      <c r="BY27" t="n">
         <v>6.71197792071016</v>
       </c>
-      <c r="BT27" t="n">
+      <c r="BZ27" t="n">
         <v>8</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>-15.09588693297208</v>
       </c>
     </row>
     <row r="28">
@@ -6587,31 +7168,52 @@
         <v>24.13733966745854</v>
       </c>
       <c r="BL28" t="n">
+        <v>16.07299168975069</v>
+      </c>
+      <c r="BM28" t="n">
         <v>11</v>
       </c>
-      <c r="BM28" t="n">
+      <c r="BN28" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN28" t="n">
+      <c r="BO28" t="n">
         <v>4.290000000000001</v>
       </c>
-      <c r="BO28" t="n">
+      <c r="BP28" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP28" t="n">
+      <c r="BQ28" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ28" t="n">
+      <c r="BR28" t="n">
         <v>12.29788135593227</v>
       </c>
-      <c r="BR28" t="n">
+      <c r="BS28" t="n">
         <v>9.066666666666666</v>
       </c>
-      <c r="BS28" t="n">
+      <c r="BT28" t="n">
+        <v>69.67145762711863</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>206</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>42.32866837387967</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>30.82318289786223</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>55.70562326869817</v>
+      </c>
+      <c r="BY28" t="n">
         <v>8.110927863017929</v>
       </c>
-      <c r="BT28" t="n">
+      <c r="BZ28" t="n">
         <v>9</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>-27.34278925323895</v>
       </c>
     </row>
     <row r="29">
@@ -6805,31 +7407,52 @@
         <v>22.36218750000008</v>
       </c>
       <c r="BL29" t="n">
+        <v>16.37341736694678</v>
+      </c>
+      <c r="BM29" t="n">
         <v>13.66666666666667</v>
       </c>
-      <c r="BM29" t="n">
+      <c r="BN29" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN29" t="n">
+      <c r="BO29" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="BO29" t="n">
+      <c r="BP29" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BQ29" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BR29" t="n">
         <v>15.89958193979942</v>
       </c>
-      <c r="BR29" t="n">
+      <c r="BS29" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="BS29" t="n">
+      <c r="BT29" t="n">
+        <v>82.12481605351191</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>164</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>44.86718911917108</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>32.36725961538463</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>59.38537815126059</v>
+      </c>
+      <c r="BY29" t="n">
         <v>3.68537920009703</v>
       </c>
-      <c r="BT29" t="n">
+      <c r="BZ29" t="n">
         <v>9</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>-37.25762693434083</v>
       </c>
     </row>
     <row r="30">
@@ -7023,31 +7646,52 @@
         <v>24.16099762470317</v>
       </c>
       <c r="BL30" t="n">
+        <v>18.8924641833811</v>
+      </c>
+      <c r="BM30" t="n">
         <v>4.216666666666667</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BN30" t="n">
         <v>0.1899999999999995</v>
       </c>
-      <c r="BN30" t="n">
+      <c r="BO30" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="BO30" t="n">
+      <c r="BP30" t="n">
         <v>-1.109999999999999</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>3.5</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BR30" t="n">
         <v>18.28013657056158</v>
       </c>
-      <c r="BR30" t="n">
-        <v>0</v>
-      </c>
       <c r="BS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>90.728634294386</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>116</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>60.30520156046825</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>50.57866983372925</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>71.96584527220648</v>
+      </c>
+      <c r="BY30" t="n">
         <v>3.486911543872896</v>
       </c>
-      <c r="BT30" t="n">
+      <c r="BZ30" t="n">
         <v>9</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>-30.42343273391775</v>
       </c>
     </row>
     <row r="31">
@@ -7241,31 +7885,52 @@
         <v>19.76429594272079</v>
       </c>
       <c r="BL31" t="n">
+        <v>15.86573099415207</v>
+      </c>
+      <c r="BM31" t="n">
         <v>7.966666666666667</v>
       </c>
-      <c r="BM31" t="n">
+      <c r="BN31" t="n">
         <v>0.9899999999999984</v>
       </c>
-      <c r="BN31" t="n">
+      <c r="BO31" t="n">
         <v>2.81</v>
       </c>
-      <c r="BO31" t="n">
+      <c r="BP31" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP31" t="n">
+      <c r="BQ31" t="n">
         <v>-1.109999999999999</v>
       </c>
-      <c r="BQ31" t="n">
+      <c r="BR31" t="n">
         <v>12.65569640062604</v>
       </c>
-      <c r="BR31" t="n">
-        <v>0</v>
-      </c>
       <c r="BS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>78.68608763693292</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>152</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>71.8147631578947</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>59.5404295942721</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>86.83763157894731</v>
+      </c>
+      <c r="BY31" t="n">
         <v>5.34815886253199</v>
       </c>
-      <c r="BT31" t="n">
+      <c r="BZ31" t="n">
         <v>9</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>-6.871324479038222</v>
       </c>
     </row>
     <row r="32">
@@ -7459,31 +8124,52 @@
         <v>22.87219806763293</v>
       </c>
       <c r="BL32" t="n">
+        <v>16.35123595505619</v>
+      </c>
+      <c r="BM32" t="n">
         <v>15.5</v>
       </c>
-      <c r="BM32" t="n">
+      <c r="BN32" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN32" t="n">
+      <c r="BO32" t="n">
         <v>3.710000000000001</v>
       </c>
-      <c r="BO32" t="n">
+      <c r="BP32" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP32" t="n">
+      <c r="BQ32" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ32" t="n">
+      <c r="BR32" t="n">
         <v>13.96614664586595</v>
       </c>
-      <c r="BR32" t="n">
+      <c r="BS32" t="n">
         <v>5.15</v>
       </c>
-      <c r="BS32" t="n">
+      <c r="BT32" t="n">
+        <v>76.51698907956337</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>47.61023407022118</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>32.83164251207733</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>64.74485955056194</v>
+      </c>
+      <c r="BY32" t="n">
         <v>5.888378711741435</v>
       </c>
-      <c r="BT32" t="n">
+      <c r="BZ32" t="n">
         <v>9</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>-28.90675500934219</v>
       </c>
     </row>
     <row r="33">
@@ -7677,31 +8363,52 @@
         <v>20.47271428571435</v>
       </c>
       <c r="BL33" t="n">
+        <v>16.84174647887324</v>
+      </c>
+      <c r="BM33" t="n">
         <v>12.45</v>
       </c>
-      <c r="BM33" t="n">
+      <c r="BN33" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN33" t="n">
+      <c r="BO33" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BO33" t="n">
+      <c r="BP33" t="n">
         <v>-3.4</v>
       </c>
-      <c r="BP33" t="n">
+      <c r="BQ33" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BQ33" t="n">
+      <c r="BR33" t="n">
         <v>14.59838862559243</v>
       </c>
-      <c r="BR33" t="n">
-        <v>0</v>
-      </c>
       <c r="BS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>85.29480252764611</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>107</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>57.92735142118879</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>48.58742857142862</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>68.91222535211286</v>
+      </c>
+      <c r="BY33" t="n">
         <v>4.206210857611845</v>
       </c>
-      <c r="BT33" t="n">
+      <c r="BZ33" t="n">
         <v>9</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>-27.36745110645732</v>
       </c>
     </row>
     <row r="34">
@@ -7895,31 +8602,52 @@
         <v>21.11200000000008</v>
       </c>
       <c r="BL34" t="n">
+        <v>15.19974860335196</v>
+      </c>
+      <c r="BM34" t="n">
         <v>14.4</v>
       </c>
-      <c r="BM34" t="n">
+      <c r="BN34" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN34" t="n">
+      <c r="BO34" t="n">
         <v>1.69</v>
       </c>
-      <c r="BO34" t="n">
+      <c r="BP34" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP34" t="n">
+      <c r="BQ34" t="n">
         <v>3</v>
       </c>
-      <c r="BQ34" t="n">
+      <c r="BR34" t="n">
         <v>13.25189681335365</v>
       </c>
-      <c r="BR34" t="n">
-        <v>0</v>
-      </c>
       <c r="BS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>81.78094081942353</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>200</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>75.30772200772218</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>69.16314285714292</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>82.50385474860335</v>
+      </c>
+      <c r="BY34" t="n">
         <v>5.137112195655499</v>
       </c>
-      <c r="BT34" t="n">
+      <c r="BZ34" t="n">
         <v>9</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>-6.473218811701358</v>
       </c>
     </row>
     <row r="35">
@@ -8113,31 +8841,52 @@
         <v>19.75376190476193</v>
       </c>
       <c r="BL35" t="n">
+        <v>14.74437142857142</v>
+      </c>
+      <c r="BM35" t="n">
         <v>17.68333333333333</v>
       </c>
-      <c r="BM35" t="n">
+      <c r="BN35" t="n">
         <v>0.1899999999999995</v>
       </c>
-      <c r="BN35" t="n">
+      <c r="BO35" t="n">
         <v>1.809999999999999</v>
       </c>
-      <c r="BO35" t="n">
+      <c r="BP35" t="n">
         <v>-4.31</v>
       </c>
-      <c r="BP35" t="n">
+      <c r="BQ35" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BQ35" t="n">
+      <c r="BR35" t="n">
         <v>12.1637025796662</v>
       </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
       <c r="BS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>79.9565250379365</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>129</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>71.43191157347223</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>63.59283333333335</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>80.76411428571429</v>
+      </c>
+      <c r="BY35" t="n">
         <v>5.306674533467833</v>
       </c>
-      <c r="BT35" t="n">
+      <c r="BZ35" t="n">
         <v>9</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>-8.524613464464267</v>
       </c>
     </row>
     <row r="36">
@@ -8331,31 +9080,52 @@
         <v>22.83951923076929</v>
       </c>
       <c r="BL36" t="n">
+        <v>14.58448753462605</v>
+      </c>
+      <c r="BM36" t="n">
         <v>15.75</v>
       </c>
-      <c r="BM36" t="n">
+      <c r="BN36" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN36" t="n">
+      <c r="BO36" t="n">
         <v>2.4</v>
       </c>
-      <c r="BO36" t="n">
+      <c r="BP36" t="n">
         <v>-5.4</v>
       </c>
-      <c r="BP36" t="n">
+      <c r="BQ36" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BQ36" t="n">
+      <c r="BR36" t="n">
         <v>13.86578294573647</v>
       </c>
-      <c r="BR36" t="n">
+      <c r="BS36" t="n">
         <v>0.05</v>
       </c>
-      <c r="BS36" t="n">
+      <c r="BT36" t="n">
+        <v>81.7553643410854</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>186</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>64.13497422680388</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>47.71173076923085</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>83.03700831024922</v>
+      </c>
+      <c r="BY36" t="n">
         <v>5.130402621273976</v>
       </c>
-      <c r="BT36" t="n">
+      <c r="BZ36" t="n">
         <v>9</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>-17.62039011428152</v>
       </c>
     </row>
     <row r="37">
@@ -8549,31 +9319,52 @@
         <v>23.17038004750601</v>
       </c>
       <c r="BL37" t="n">
+        <v>17.3006534090909</v>
+      </c>
+      <c r="BM37" t="n">
         <v>14.05</v>
       </c>
-      <c r="BM37" t="n">
+      <c r="BN37" t="n">
         <v>1.41</v>
       </c>
-      <c r="BN37" t="n">
+      <c r="BO37" t="n">
         <v>1.710000000000001</v>
       </c>
-      <c r="BO37" t="n">
+      <c r="BP37" t="n">
         <v>-4.199999999999999</v>
       </c>
-      <c r="BP37" t="n">
+      <c r="BQ37" t="n">
         <v>9.5</v>
       </c>
-      <c r="BQ37" t="n">
+      <c r="BR37" t="n">
         <v>13.39127760252373</v>
       </c>
-      <c r="BR37" t="n">
-        <v>0</v>
-      </c>
       <c r="BS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>78.81170347003174</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>210</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>60.7070077720206</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>44.55425178147279</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>79.95954545454539</v>
+      </c>
+      <c r="BY37" t="n">
         <v>7.097660221310583</v>
       </c>
-      <c r="BT37" t="n">
+      <c r="BZ37" t="n">
         <v>9</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>-18.10469569801114</v>
       </c>
     </row>
     <row r="38">
@@ -8767,31 +9558,52 @@
         <v>22.38071258907369</v>
       </c>
       <c r="BL38" t="n">
+        <v>16.76591549295776</v>
+      </c>
+      <c r="BM38" t="n">
         <v>15.31666666666667</v>
       </c>
-      <c r="BM38" t="n">
+      <c r="BN38" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN38" t="n">
+      <c r="BO38" t="n">
         <v>3.310000000000002</v>
       </c>
-      <c r="BO38" t="n">
+      <c r="BP38" t="n">
         <v>-4.699999999999999</v>
       </c>
-      <c r="BP38" t="n">
+      <c r="BQ38" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="BQ38" t="n">
+      <c r="BR38" t="n">
         <v>13.90253477588881</v>
       </c>
-      <c r="BR38" t="n">
+      <c r="BS38" t="n">
         <v>0.1</v>
       </c>
-      <c r="BS38" t="n">
+      <c r="BT38" t="n">
+        <v>81.464451313756</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>159</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>55.15584516129038</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>39.53323040380056</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>73.62416901408463</v>
+      </c>
+      <c r="BY38" t="n">
         <v>5.905310385401641</v>
       </c>
-      <c r="BT38" t="n">
+      <c r="BZ38" t="n">
         <v>9</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>-26.30860615246562</v>
       </c>
     </row>
     <row r="39">
@@ -8985,31 +9797,52 @@
         <v>24.06142517814732</v>
       </c>
       <c r="BL39" t="n">
+        <v>17.57564469914041</v>
+      </c>
+      <c r="BM39" t="n">
         <v>11.28333333333333</v>
       </c>
-      <c r="BM39" t="n">
+      <c r="BN39" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN39" t="n">
+      <c r="BO39" t="n">
         <v>1.810000000000002</v>
       </c>
-      <c r="BO39" t="n">
+      <c r="BP39" t="n">
         <v>-4.9</v>
       </c>
-      <c r="BP39" t="n">
+      <c r="BQ39" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BQ39" t="n">
+      <c r="BR39" t="n">
         <v>16.0970751633987</v>
       </c>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
       <c r="BS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>86.99848039215702</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>48</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>63.88945383615078</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>52.32040380047513</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>77.82091690544411</v>
+      </c>
+      <c r="BY39" t="n">
         <v>5.018490506302314</v>
       </c>
-      <c r="BT39" t="n">
+      <c r="BZ39" t="n">
         <v>9</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>-23.10902655600624</v>
       </c>
     </row>
     <row r="40">
@@ -9203,31 +10036,52 @@
         <v>24.97323671497589</v>
       </c>
       <c r="BL40" t="n">
+        <v>20.24906515580737</v>
+      </c>
+      <c r="BM40" t="n">
         <v>1.783333333333333</v>
       </c>
-      <c r="BM40" t="n">
+      <c r="BN40" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="BN40" t="n">
+      <c r="BO40" t="n">
         <v>3.710000000000001</v>
       </c>
-      <c r="BO40" t="n">
+      <c r="BP40" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP40" t="n">
+      <c r="BQ40" t="n">
         <v>6.289999999999999</v>
       </c>
-      <c r="BQ40" t="n">
+      <c r="BR40" t="n">
         <v>18.26374810318676</v>
       </c>
-      <c r="BR40" t="n">
+      <c r="BS40" t="n">
         <v>0.3833333333333334</v>
       </c>
-      <c r="BS40" t="n">
+      <c r="BT40" t="n">
+        <v>90.85547799696526</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>153</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>55.80732375979112</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>42.31507246376825</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>71.58178470254971</v>
+      </c>
+      <c r="BY40" t="n">
         <v>4.528340669659332</v>
       </c>
-      <c r="BT40" t="n">
+      <c r="BZ40" t="n">
         <v>9</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>-35.04815423717415</v>
       </c>
     </row>
     <row r="41">
@@ -9421,31 +10275,52 @@
         <v>20.83878172588837</v>
       </c>
       <c r="BL41" t="n">
-        <v>0</v>
+        <v>17.41005555555553</v>
       </c>
       <c r="BM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN41" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="BN41" t="n">
+      <c r="BO41" t="n">
         <v>0.7100000000000009</v>
       </c>
-      <c r="BO41" t="n">
+      <c r="BP41" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP41" t="n">
+      <c r="BQ41" t="n">
         <v>2</v>
       </c>
-      <c r="BQ41" t="n">
+      <c r="BR41" t="n">
         <v>17.01817351598181</v>
       </c>
-      <c r="BR41" t="n">
-        <v>0</v>
-      </c>
       <c r="BS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>93.12033485540258</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>93.49957503320049</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>92.22342639593899</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>94.89955555555518</v>
+      </c>
+      <c r="BY41" t="n">
         <v>2.184216922265311</v>
       </c>
-      <c r="BT41" t="n">
+      <c r="BZ41" t="n">
         <v>9</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>0.3792401777979109</v>
       </c>
     </row>
     <row r="42">
@@ -9639,31 +10514,52 @@
         <v>20.69334916864611</v>
       </c>
       <c r="BL42" t="n">
+        <v>16.67947368421055</v>
+      </c>
+      <c r="BM42" t="n">
         <v>6.733333333333333</v>
       </c>
-      <c r="BM42" t="n">
+      <c r="BN42" t="n">
         <v>0.4100000000000019</v>
       </c>
-      <c r="BN42" t="n">
+      <c r="BO42" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="BO42" t="n">
+      <c r="BP42" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP42" t="n">
+      <c r="BQ42" t="n">
         <v>-1.300000000000001</v>
       </c>
-      <c r="BQ42" t="n">
+      <c r="BR42" t="n">
         <v>13.88699544764795</v>
       </c>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
       <c r="BS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>83.27954476479546</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>93</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>64.62017925736208</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>48.34722090261286</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>83.55808864265931</v>
+      </c>
+      <c r="BY42" t="n">
         <v>4.94909930267227</v>
       </c>
-      <c r="BT42" t="n">
+      <c r="BZ42" t="n">
         <v>9</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>-18.65936550743338</v>
       </c>
     </row>
     <row r="43">
@@ -9857,31 +10753,52 @@
         <v>23.67659203980107</v>
       </c>
       <c r="BL43" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="BM43" t="n">
         <v>9.533333333333333</v>
       </c>
-      <c r="BM43" t="n">
+      <c r="BN43" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN43" t="n">
+      <c r="BO43" t="n">
         <v>1.809999999999999</v>
       </c>
-      <c r="BO43" t="n">
+      <c r="BP43" t="n">
         <v>-4.699999999999999</v>
       </c>
-      <c r="BP43" t="n">
+      <c r="BQ43" t="n">
         <v>1.5</v>
       </c>
-      <c r="BQ43" t="n">
+      <c r="BR43" t="n">
         <v>15.33319875776401</v>
       </c>
-      <c r="BR43" t="n">
-        <v>0</v>
-      </c>
       <c r="BS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>85.24916149068363</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>65</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>57.26855807743679</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>45.86776119402988</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>70.39715517241407</v>
+      </c>
+      <c r="BY43" t="n">
         <v>5.274478144772818</v>
       </c>
-      <c r="BT43" t="n">
+      <c r="BZ43" t="n">
         <v>9</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>-27.98060341324685</v>
       </c>
     </row>
     <row r="44">
@@ -10075,31 +10992,52 @@
         <v>17.69717339667462</v>
       </c>
       <c r="BL44" t="n">
+        <v>15.48997126436782</v>
+      </c>
+      <c r="BM44" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="BM44" t="n">
+      <c r="BN44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN44" t="n">
+      <c r="BO44" t="n">
         <v>1.19</v>
       </c>
-      <c r="BO44" t="n">
+      <c r="BP44" t="n">
         <v>-3.199999999999999</v>
       </c>
-      <c r="BP44" t="n">
+      <c r="BQ44" t="n">
         <v>-5.109999999999999</v>
       </c>
-      <c r="BQ44" t="n">
+      <c r="BR44" t="n">
         <v>15.43612462006093</v>
       </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
       <c r="BS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>93.50604863221895</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>88.32846354166691</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>88.73016627078381</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>87.83695402298848</v>
+      </c>
+      <c r="BY44" t="n">
         <v>1.259734754939139</v>
       </c>
-      <c r="BT44" t="n">
+      <c r="BZ44" t="n">
         <v>9</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>-5.177585090552043</v>
       </c>
     </row>
     <row r="45">
@@ -10293,31 +11231,52 @@
         <v>18.08414285714287</v>
       </c>
       <c r="BL45" t="n">
-        <v>0</v>
+        <v>15.91061111111113</v>
       </c>
       <c r="BM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN45" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="BN45" t="n">
+      <c r="BO45" t="n">
         <v>0.8899999999999988</v>
       </c>
-      <c r="BO45" t="n">
+      <c r="BP45" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP45" t="n">
+      <c r="BQ45" t="n">
         <v>-3.899999999999999</v>
       </c>
-      <c r="BQ45" t="n">
+      <c r="BR45" t="n">
         <v>14.66359621451106</v>
       </c>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
       <c r="BS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>93.65301261829629</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>93.08726572528886</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>92.49466666666679</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>93.77838888888876</v>
+      </c>
+      <c r="BY45" t="n">
         <v>2.414786327209191</v>
       </c>
-      <c r="BT45" t="n">
+      <c r="BZ45" t="n">
         <v>9</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>-0.5657468930074288</v>
       </c>
     </row>
     <row r="46">
@@ -10511,31 +11470,52 @@
         <v>18.87969121140145</v>
       </c>
       <c r="BL46" t="n">
+        <v>15.79304709141277</v>
+      </c>
+      <c r="BM46" t="n">
         <v>2.516666666666667</v>
       </c>
-      <c r="BM46" t="n">
+      <c r="BN46" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="BN46" t="n">
+      <c r="BO46" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BO46" t="n">
+      <c r="BP46" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP46" t="n">
+      <c r="BQ46" t="n">
         <v>-0.8999999999999986</v>
       </c>
-      <c r="BQ46" t="n">
+      <c r="BR46" t="n">
         <v>14.10358118361154</v>
       </c>
-      <c r="BR46" t="n">
-        <v>0</v>
-      </c>
       <c r="BS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>91.52321699544825</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>203</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>73.6302816901412</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>70.79140142517808</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>76.84368421052645</v>
+      </c>
+      <c r="BY46" t="n">
         <v>3.354485397694573</v>
       </c>
-      <c r="BT46" t="n">
+      <c r="BZ46" t="n">
         <v>9</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>-17.89293530530705</v>
       </c>
     </row>
     <row r="47">
@@ -10729,31 +11709,52 @@
         <v>15.25482185273163</v>
       </c>
       <c r="BL47" t="n">
+        <v>12.82476454293631</v>
+      </c>
+      <c r="BM47" t="n">
         <v>2.483333333333333</v>
       </c>
-      <c r="BM47" t="n">
+      <c r="BN47" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN47" t="n">
+      <c r="BO47" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="BO47" t="n">
+      <c r="BP47" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BP47" t="n">
+      <c r="BQ47" t="n">
         <v>-6.5</v>
       </c>
-      <c r="BQ47" t="n">
+      <c r="BR47" t="n">
         <v>12.3401075268817</v>
       </c>
-      <c r="BR47" t="n">
-        <v>0</v>
-      </c>
       <c r="BS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>92.92470046082973</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>89.95710627400776</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>87.93612826603321</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>92.31573407202198</v>
+      </c>
+      <c r="BY47" t="n">
         <v>1.790263791940315</v>
       </c>
-      <c r="BT47" t="n">
+      <c r="BZ47" t="n">
         <v>9</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>-2.96759418682197</v>
       </c>
     </row>
     <row r="48">
@@ -10947,31 +11948,52 @@
         <v>21.62928741092641</v>
       </c>
       <c r="BL48" t="n">
+        <v>16.92167130919219</v>
+      </c>
+      <c r="BM48" t="n">
         <v>2.616666666666667</v>
       </c>
-      <c r="BM48" t="n">
+      <c r="BN48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN48" t="n">
+      <c r="BO48" t="n">
         <v>2.5</v>
       </c>
-      <c r="BO48" t="n">
+      <c r="BP48" t="n">
         <v>-4.699999999999999</v>
       </c>
-      <c r="BP48" t="n">
+      <c r="BQ48" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ48" t="n">
+      <c r="BR48" t="n">
         <v>12.88560490045944</v>
       </c>
-      <c r="BR48" t="n">
-        <v>0</v>
-      </c>
       <c r="BS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>88.06872894333873</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>64.90695763799737</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>50.08361045130647</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>82.26467966573824</v>
+      </c>
+      <c r="BY48" t="n">
         <v>6.568965061029759</v>
       </c>
-      <c r="BT48" t="n">
+      <c r="BZ48" t="n">
         <v>9</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>-23.16177130534136</v>
       </c>
     </row>
     <row r="49">
@@ -11165,31 +12187,52 @@
         <v>22.14202380952388</v>
       </c>
       <c r="BL49" t="n">
+        <v>14.06371191135735</v>
+      </c>
+      <c r="BM49" t="n">
         <v>2.516666666666667</v>
       </c>
-      <c r="BM49" t="n">
+      <c r="BN49" t="n">
         <v>0.8100000000000005</v>
       </c>
-      <c r="BN49" t="n">
+      <c r="BO49" t="n">
         <v>3</v>
       </c>
-      <c r="BO49" t="n">
+      <c r="BP49" t="n">
         <v>-5.31</v>
       </c>
-      <c r="BP49" t="n">
+      <c r="BQ49" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ49" t="n">
+      <c r="BR49" t="n">
         <v>13.65905918057662</v>
       </c>
-      <c r="BR49" t="n">
-        <v>0</v>
-      </c>
       <c r="BS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>89.25068285280753</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>187</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>67.07147435897424</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>51.95554761904766</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>84.62720221606655</v>
+      </c>
+      <c r="BY49" t="n">
         <v>4.740492101474798</v>
       </c>
-      <c r="BT49" t="n">
+      <c r="BZ49" t="n">
         <v>9</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>-22.17920849383329</v>
       </c>
     </row>
     <row r="50">
@@ -11383,31 +12426,52 @@
         <v>21.66054761904764</v>
       </c>
       <c r="BL50" t="n">
+        <v>16.48552777777779</v>
+      </c>
+      <c r="BM50" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="BM50" t="n">
+      <c r="BN50" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN50" t="n">
+      <c r="BO50" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BO50" t="n">
+      <c r="BP50" t="n">
         <v>-4.199999999999999</v>
       </c>
-      <c r="BP50" t="n">
+      <c r="BQ50" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ50" t="n">
+      <c r="BR50" t="n">
         <v>15.28608497723828</v>
       </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
       <c r="BS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>92.3978452200309</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>56</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>68.23884467265721</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>58.80738095238097</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>79.17652777777789</v>
+      </c>
+      <c r="BY50" t="n">
         <v>3.980949682582128</v>
       </c>
-      <c r="BT50" t="n">
+      <c r="BZ50" t="n">
         <v>9</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>-24.15900054737369</v>
       </c>
     </row>
     <row r="51">
@@ -11601,31 +12665,52 @@
         <v>24.18134939759043</v>
       </c>
       <c r="BL51" t="n">
+        <v>16.96838526912184</v>
+      </c>
+      <c r="BM51" t="n">
         <v>0.7833333333333333</v>
       </c>
-      <c r="BM51" t="n">
+      <c r="BN51" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="BN51" t="n">
+      <c r="BO51" t="n">
         <v>2.599999999999998</v>
       </c>
-      <c r="BO51" t="n">
+      <c r="BP51" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP51" t="n">
+      <c r="BQ51" t="n">
         <v>11.4</v>
       </c>
-      <c r="BQ51" t="n">
+      <c r="BR51" t="n">
         <v>15.70347158218131</v>
       </c>
-      <c r="BR51" t="n">
-        <v>0</v>
-      </c>
       <c r="BS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>91.82101382488509</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>157</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>71.17757496740516</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>52.23898795180739</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>93.49382436260623</v>
+      </c>
+      <c r="BY51" t="n">
         <v>5.148679656410774</v>
       </c>
-      <c r="BT51" t="n">
+      <c r="BZ51" t="n">
         <v>9</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>-20.64343885747992</v>
       </c>
     </row>
     <row r="52">
@@ -11819,31 +12904,52 @@
         <v>24.16503562945377</v>
       </c>
       <c r="BL52" t="n">
+        <v>17.88919667590029</v>
+      </c>
+      <c r="BM52" t="n">
         <v>1.783333333333333</v>
       </c>
-      <c r="BM52" t="n">
+      <c r="BN52" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN52" t="n">
+      <c r="BO52" t="n">
         <v>3.710000000000001</v>
       </c>
-      <c r="BO52" t="n">
+      <c r="BP52" t="n">
         <v>-1.4</v>
       </c>
-      <c r="BP52" t="n">
+      <c r="BQ52" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ52" t="n">
+      <c r="BR52" t="n">
         <v>15.89815503875969</v>
       </c>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
       <c r="BS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>91.7594418604657</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>35</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>72.63595390524929</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>56.90603325415677</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>90.96132963988912</v>
+      </c>
+      <c r="BY52" t="n">
         <v>5.364303347924167</v>
       </c>
-      <c r="BT52" t="n">
+      <c r="BZ52" t="n">
         <v>9</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>-19.1234879552164</v>
       </c>
     </row>
     <row r="53">
@@ -12037,31 +13143,52 @@
         <v>22.7252696078432</v>
       </c>
       <c r="BL53" t="n">
+        <v>18.87091412742381</v>
+      </c>
+      <c r="BM53" t="n">
         <v>1.9</v>
       </c>
-      <c r="BM53" t="n">
+      <c r="BN53" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BN53" t="n">
+      <c r="BO53" t="n">
         <v>2</v>
       </c>
-      <c r="BO53" t="n">
+      <c r="BP53" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP53" t="n">
+      <c r="BQ53" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BQ53" t="n">
+      <c r="BR53" t="n">
         <v>15.933393442623</v>
       </c>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
       <c r="BS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>92.60422950819697</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>66.83523437500008</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>57.76176470588235</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>77.03725761772863</v>
+      </c>
+      <c r="BY53" t="n">
         <v>4.978741974043775</v>
       </c>
-      <c r="BT53" t="n">
+      <c r="BZ53" t="n">
         <v>9</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>-25.76899513319688</v>
       </c>
     </row>
     <row r="54">
@@ -12255,31 +13382,52 @@
         <v>23.22000000000007</v>
       </c>
       <c r="BL54" t="n">
+        <v>19.13019718309859</v>
+      </c>
+      <c r="BM54" t="n">
         <v>1.516666666666667</v>
       </c>
-      <c r="BM54" t="n">
+      <c r="BN54" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN54" t="n">
+      <c r="BO54" t="n">
         <v>1.190000000000001</v>
       </c>
-      <c r="BO54" t="n">
+      <c r="BP54" t="n">
         <v>-3.199999999999999</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BQ54" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ54" t="n">
+      <c r="BR54" t="n">
         <v>17.74136150234751</v>
       </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
       <c r="BS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>94.99111111111161</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>59</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>68.72989677419343</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>58.69909738717349</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>80.57901408450718</v>
+      </c>
+      <c r="BY54" t="n">
         <v>3.602819142813896</v>
       </c>
-      <c r="BT54" t="n">
+      <c r="BZ54" t="n">
         <v>9</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>-26.26121433691817</v>
       </c>
     </row>
     <row r="55">
@@ -12473,31 +13621,52 @@
         <v>23.64463182897867</v>
       </c>
       <c r="BL55" t="n">
+        <v>19.71733711048159</v>
+      </c>
+      <c r="BM55" t="n">
         <v>2.783333333333333</v>
       </c>
-      <c r="BM55" t="n">
+      <c r="BN55" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="BN55" t="n">
+      <c r="BO55" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="BO55" t="n">
+      <c r="BP55" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BP55" t="n">
+      <c r="BQ55" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BQ55" t="n">
+      <c r="BR55" t="n">
         <v>17.79271721958931</v>
       </c>
-      <c r="BR55" t="n">
-        <v>0</v>
-      </c>
       <c r="BS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>95.54116903633508</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>77.31701164294938</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>65.54228028503566</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>91.32532577903673</v>
+      </c>
+      <c r="BY55" t="n">
         <v>4.057231033968378</v>
       </c>
-      <c r="BT55" t="n">
+      <c r="BZ55" t="n">
         <v>9</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>-18.2241573933857</v>
       </c>
     </row>
     <row r="56">
@@ -12691,31 +13860,52 @@
         <v>24.6369833729217</v>
       </c>
       <c r="BL56" t="n">
+        <v>20.88157746478875</v>
+      </c>
+      <c r="BM56" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BM56" t="n">
+      <c r="BN56" t="n">
         <v>0.7100000000000009</v>
       </c>
-      <c r="BN56" t="n">
+      <c r="BO56" t="n">
         <v>2.890000000000001</v>
       </c>
-      <c r="BO56" t="n">
+      <c r="BP56" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BP56" t="n">
+      <c r="BQ56" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ56" t="n">
+      <c r="BR56" t="n">
         <v>17.65902400000003</v>
       </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
       <c r="BS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>94.94699200000019</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>74</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>65.26370322580645</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>53.37741092636592</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>79.30754929577479</v>
+      </c>
+      <c r="BY56" t="n">
         <v>5.254046967742035</v>
       </c>
-      <c r="BT56" t="n">
+      <c r="BZ56" t="n">
         <v>9</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>-29.68328877419374</v>
       </c>
     </row>
     <row r="57">
@@ -12909,31 +14099,52 @@
         <v>24.8140722891567</v>
       </c>
       <c r="BL57" t="n">
+        <v>19.74395480225989</v>
+      </c>
+      <c r="BM57" t="n">
         <v>1.95</v>
       </c>
-      <c r="BM57" t="n">
+      <c r="BN57" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BN57" t="n">
+      <c r="BO57" t="n">
         <v>2.310000000000002</v>
       </c>
-      <c r="BO57" t="n">
+      <c r="BP57" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP57" t="n">
+      <c r="BQ57" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ57" t="n">
+      <c r="BR57" t="n">
         <v>17.82681744749604</v>
       </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
       <c r="BS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>94.70749596122802</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>62.6176692708332</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>46.50265060240972</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>81.48437853107353</v>
+      </c>
+      <c r="BY57" t="n">
         <v>4.64897682333741</v>
       </c>
-      <c r="BT57" t="n">
+      <c r="BZ57" t="n">
         <v>9</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>-32.08982669039482</v>
       </c>
     </row>
     <row r="58">
@@ -13127,31 +14338,52 @@
         <v>23.61007575757583</v>
       </c>
       <c r="BL58" t="n">
+        <v>18.04094444444445</v>
+      </c>
+      <c r="BM58" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="BM58" t="n">
+      <c r="BN58" t="n">
         <v>0.6099999999999994</v>
       </c>
-      <c r="BN58" t="n">
+      <c r="BO58" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BO58" t="n">
+      <c r="BP58" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BP58" t="n">
+      <c r="BQ58" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ58" t="n">
+      <c r="BR58" t="n">
         <v>18.01830065359486</v>
       </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
       <c r="BS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>97.24715686274537</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>68</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>89.05143046357635</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>86.35050505050513</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>92.00286111111107</v>
+      </c>
+      <c r="BY58" t="n">
         <v>2.941222525213202</v>
       </c>
-      <c r="BT58" t="n">
+      <c r="BZ58" t="n">
         <v>9</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>-8.195726399169018</v>
       </c>
     </row>
     <row r="59">
@@ -13345,31 +14577,52 @@
         <v>26.1120190023754</v>
       </c>
       <c r="BL59" t="n">
+        <v>20.87332409972301</v>
+      </c>
+      <c r="BM59" t="n">
         <v>1.466666666666667</v>
       </c>
-      <c r="BM59" t="n">
+      <c r="BN59" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN59" t="n">
+      <c r="BO59" t="n">
         <v>2.5</v>
       </c>
-      <c r="BO59" t="n">
+      <c r="BP59" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BP59" t="n">
+      <c r="BQ59" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ59" t="n">
+      <c r="BR59" t="n">
         <v>19.06851454823902</v>
       </c>
-      <c r="BR59" t="n">
-        <v>0</v>
-      </c>
       <c r="BS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>96.82119448698316</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>47</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>71.8652880921893</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>58.23945368171034</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>87.73204986149595</v>
+      </c>
+      <c r="BY59" t="n">
         <v>4.623969446639428</v>
       </c>
-      <c r="BT59" t="n">
+      <c r="BZ59" t="n">
         <v>9</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>-24.95590639479386</v>
       </c>
     </row>
     <row r="60">
@@ -13563,31 +14816,52 @@
         <v>25.66102137767228</v>
       </c>
       <c r="BL60" t="n">
+        <v>22.33112994350285</v>
+      </c>
+      <c r="BM60" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="BM60" t="n">
+      <c r="BN60" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BN60" t="n">
+      <c r="BO60" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="BO60" t="n">
+      <c r="BP60" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>20.28893617021273</v>
       </c>
-      <c r="BR60" t="n">
-        <v>0</v>
-      </c>
       <c r="BS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>98.38501519756859</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>47</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>72.82124031007737</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>63.00871733966755</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>84.46516949152549</v>
+      </c>
+      <c r="BY60" t="n">
         <v>3.849319643740845</v>
       </c>
-      <c r="BT60" t="n">
+      <c r="BZ60" t="n">
         <v>9</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>-25.56377488749122</v>
       </c>
     </row>
     <row r="61">
@@ -13781,31 +15055,52 @@
         <v>19.94102137767226</v>
       </c>
       <c r="BL61" t="n">
+        <v>20.02698060941829</v>
+      </c>
+      <c r="BM61" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BN61" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BN61" t="n">
+      <c r="BO61" t="n">
         <v>1</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BP61" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BP61" t="n">
+      <c r="BQ61" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BQ61" t="n">
+      <c r="BR61" t="n">
         <v>17.97555386949934</v>
       </c>
-      <c r="BR61" t="n">
-        <v>0</v>
-      </c>
       <c r="BS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>98.71159332321695</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>29</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>90.52480153649184</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>88.0552256532067</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>93.36570637119107</v>
+      </c>
+      <c r="BY61" t="n">
         <v>2.001424363535378</v>
       </c>
-      <c r="BT61" t="n">
+      <c r="BZ61" t="n">
         <v>9</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>-8.186791786725109</v>
       </c>
     </row>
     <row r="62">
@@ -13999,31 +15294,52 @@
         <v>16.86349168646084</v>
       </c>
       <c r="BL62" t="n">
-        <v>0</v>
+        <v>15.95825484764545</v>
       </c>
       <c r="BM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN62" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="BN62" t="n">
+      <c r="BO62" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="BO62" t="n">
+      <c r="BP62" t="n">
         <v>-1.109999999999999</v>
       </c>
-      <c r="BP62" t="n">
+      <c r="BQ62" t="n">
         <v>-7.609999999999999</v>
       </c>
-      <c r="BQ62" t="n">
+      <c r="BR62" t="n">
         <v>15.96467374810313</v>
       </c>
-      <c r="BR62" t="n">
-        <v>0</v>
-      </c>
       <c r="BS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>99.84236722306618</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>98.41991037131901</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>98.5933016627079</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>98.21401662049863</v>
+      </c>
+      <c r="BY62" t="n">
         <v>0.4820099906934008</v>
       </c>
-      <c r="BT62" t="n">
+      <c r="BZ62" t="n">
         <v>9</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>-1.422456851747171</v>
       </c>
     </row>
     <row r="63">
@@ -14217,31 +15533,52 @@
         <v>19.40356626506028</v>
       </c>
       <c r="BL63" t="n">
+        <v>19.08450424929178</v>
+      </c>
+      <c r="BM63" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="BM63" t="n">
+      <c r="BN63" t="n">
         <v>0.1100000000000012</v>
       </c>
-      <c r="BN63" t="n">
+      <c r="BO63" t="n">
         <v>1.210000000000001</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BP63" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BQ63" t="n">
         <v>-0.3000000000000007</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BR63" t="n">
         <v>15.33479069767443</v>
       </c>
-      <c r="BR63" t="n">
-        <v>0</v>
-      </c>
       <c r="BS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>97.55317829457441</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>107</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>79.21462842242519</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>73.90821686746979</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>85.39152974504252</v>
+      </c>
+      <c r="BY63" t="n">
         <v>3.921154543525128</v>
       </c>
-      <c r="BT63" t="n">
+      <c r="BZ63" t="n">
         <v>9</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>-18.33854987214922</v>
       </c>
     </row>
     <row r="64">
@@ -14435,31 +15772,52 @@
         <v>23.23681704260658</v>
       </c>
       <c r="BL64" t="n">
+        <v>17.48392655367234</v>
+      </c>
+      <c r="BM64" t="n">
         <v>2.983333333333333</v>
       </c>
-      <c r="BM64" t="n">
+      <c r="BN64" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN64" t="n">
+      <c r="BO64" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="BO64" t="n">
+      <c r="BP64" t="n">
         <v>-2</v>
       </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR64" t="n">
         <v>15.07943661971834</v>
       </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
       <c r="BS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>95.65560250391268</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>79.43742021276589</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>67.80047619047618</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>92.54841807909611</v>
+      </c>
+      <c r="BY64" t="n">
         <v>5.447425082409454</v>
       </c>
-      <c r="BT64" t="n">
+      <c r="BZ64" t="n">
         <v>9</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>-16.21818229114679</v>
       </c>
     </row>
     <row r="65">
@@ -14653,31 +16011,52 @@
         <v>21.29450000000003</v>
       </c>
       <c r="BL65" t="n">
+        <v>15.67180790960452</v>
+      </c>
+      <c r="BM65" t="n">
         <v>1.95</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BN65" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN65" t="n">
+      <c r="BO65" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="BP65" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>-1.210000000000001</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>16.74108864696732</v>
       </c>
-      <c r="BR65" t="n">
-        <v>0</v>
-      </c>
       <c r="BS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>98.66895800933166</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>246</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>77.6528072445022</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>75.8160952380952</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>79.7690960451979</v>
+      </c>
+      <c r="BY65" t="n">
         <v>1.976647446176376</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="BZ65" t="n">
         <v>9</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>-21.01615076482946</v>
       </c>
     </row>
     <row r="66">
@@ -14871,31 +16250,52 @@
         <v>24.61344578313263</v>
       </c>
       <c r="BL66" t="n">
+        <v>19.42653739612188</v>
+      </c>
+      <c r="BM66" t="n">
         <v>1.733333333333333</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BN66" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN66" t="n">
+      <c r="BO66" t="n">
         <v>2.810000000000002</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BP66" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BQ66" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BR66" t="n">
         <v>16.83659874608148</v>
       </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
       <c r="BS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>74.6460258064516</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>64.91310843373513</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>85.78343490304717</v>
+      </c>
+      <c r="BY66" t="n">
         <v>5.362059318434753</v>
       </c>
-      <c r="BT66" t="n">
+      <c r="BZ66" t="n">
         <v>9</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>-25.25397419354941</v>
       </c>
     </row>
     <row r="67">
@@ -15089,31 +16489,52 @@
         <v>24.74859857482188</v>
       </c>
       <c r="BL67" t="n">
+        <v>20.11585434173672</v>
+      </c>
+      <c r="BM67" t="n">
         <v>1.45</v>
       </c>
-      <c r="BM67" t="n">
+      <c r="BN67" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BN67" t="n">
+      <c r="BO67" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BO67" t="n">
+      <c r="BP67" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BP67" t="n">
+      <c r="BQ67" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>20.17573596358132</v>
       </c>
-      <c r="BR67" t="n">
-        <v>0</v>
-      </c>
       <c r="BS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>61</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>77.24859716859716</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>70.41520190023763</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>85.2592717086835</v>
+      </c>
+      <c r="BY67" t="n">
         <v>2.444765966920716</v>
       </c>
-      <c r="BT67" t="n">
+      <c r="BZ67" t="n">
         <v>9</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>-22.65140283140384</v>
       </c>
     </row>
     <row r="68">
@@ -15307,31 +16728,52 @@
         <v>24.69261904761913</v>
       </c>
       <c r="BL68" t="n">
+        <v>22.09950138504156</v>
+      </c>
+      <c r="BM68" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM68" t="n">
+      <c r="BN68" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="BN68" t="n">
+      <c r="BO68" t="n">
         <v>3</v>
       </c>
-      <c r="BO68" t="n">
+      <c r="BP68" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BP68" t="n">
+      <c r="BQ68" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>17.70866464339913</v>
       </c>
-      <c r="BR68" t="n">
-        <v>0</v>
-      </c>
       <c r="BS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>99.72098634294461</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>66.09767948717932</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>50.64542857142869</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>84.04210526315792</v>
+      </c>
+      <c r="BY68" t="n">
         <v>5.782271254036868</v>
       </c>
-      <c r="BT68" t="n">
+      <c r="BZ68" t="n">
         <v>9</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>-33.62330685576529</v>
       </c>
     </row>
     <row r="69">
@@ -15525,31 +16967,52 @@
         <v>24.61230403800485</v>
       </c>
       <c r="BL69" t="n">
+        <v>20.94922222222221</v>
+      </c>
+      <c r="BM69" t="n">
         <v>1.233333333333333</v>
       </c>
-      <c r="BM69" t="n">
+      <c r="BN69" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN69" t="n">
+      <c r="BO69" t="n">
         <v>4.41</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BP69" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP69" t="n">
+      <c r="BQ69" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BQ69" t="n">
+      <c r="BR69" t="n">
         <v>14.06220030349018</v>
       </c>
-      <c r="BR69" t="n">
-        <v>0</v>
-      </c>
       <c r="BS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>94.57016691957556</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>61.34379487179458</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>42.06154394299298</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>83.83875000000002</v>
+      </c>
+      <c r="BY69" t="n">
         <v>8.858825337535563</v>
       </c>
-      <c r="BT69" t="n">
+      <c r="BZ69" t="n">
         <v>10</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>-33.22637204778098</v>
       </c>
     </row>
     <row r="70">
@@ -15743,31 +17206,52 @@
         <v>20.81698337292163</v>
       </c>
       <c r="BL70" t="n">
+        <v>17.57437673130194</v>
+      </c>
+      <c r="BM70" t="n">
         <v>1.216666666666667</v>
       </c>
-      <c r="BM70" t="n">
+      <c r="BN70" t="n">
         <v>1.09</v>
       </c>
-      <c r="BN70" t="n">
+      <c r="BO70" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BO70" t="n">
+      <c r="BP70" t="n">
         <v>-4.4</v>
       </c>
-      <c r="BP70" t="n">
+      <c r="BQ70" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BQ70" t="n">
+      <c r="BR70" t="n">
         <v>16.7837784522003</v>
       </c>
-      <c r="BR70" t="n">
-        <v>0</v>
-      </c>
       <c r="BS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>53</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>77.03758002560802</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>64.49399049881252</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>91.61958448753464</v>
+      </c>
+      <c r="BY70" t="n">
         <v>2.534787488900996</v>
       </c>
-      <c r="BT70" t="n">
+      <c r="BZ70" t="n">
         <v>10</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>-22.86241997439298</v>
       </c>
     </row>
     <row r="71">
@@ -15961,31 +17445,52 @@
         <v>17.68990498812354</v>
       </c>
       <c r="BL71" t="n">
-        <v>0</v>
+        <v>14.39227146814406</v>
       </c>
       <c r="BM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN71" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN71" t="n">
+      <c r="BO71" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BO71" t="n">
+      <c r="BP71" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP71" t="n">
+      <c r="BQ71" t="n">
         <v>-6</v>
       </c>
-      <c r="BQ71" t="n">
+      <c r="BR71" t="n">
         <v>15.26452200303493</v>
       </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
       <c r="BS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY71" t="n">
         <v>0.9027891365298188</v>
       </c>
-      <c r="BT71" t="n">
+      <c r="BZ71" t="n">
         <v>10</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>-1.06581410364015e-12</v>
       </c>
     </row>
     <row r="72">
@@ -16179,31 +17684,52 @@
         <v>22.49966745843236</v>
       </c>
       <c r="BL72" t="n">
+        <v>18.79894444444447</v>
+      </c>
+      <c r="BM72" t="n">
         <v>3.016666666666667</v>
       </c>
-      <c r="BM72" t="n">
+      <c r="BN72" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN72" t="n">
+      <c r="BO72" t="n">
         <v>2</v>
       </c>
-      <c r="BO72" t="n">
+      <c r="BP72" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP72" t="n">
+      <c r="BQ72" t="n">
         <v>-1</v>
       </c>
-      <c r="BQ72" t="n">
+      <c r="BR72" t="n">
         <v>15.90822188449852</v>
       </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
       <c r="BS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>99.71094224924079</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>79.82208974358971</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>70.69608076009511</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>90.43911111111098</v>
+      </c>
+      <c r="BY72" t="n">
         <v>4.883803756527243</v>
       </c>
-      <c r="BT72" t="n">
+      <c r="BZ72" t="n">
         <v>10</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>-19.88885250565107</v>
       </c>
     </row>
     <row r="73">
@@ -16397,31 +17923,52 @@
         <v>22.60855106888367</v>
       </c>
       <c r="BL73" t="n">
+        <v>17.10828254847646</v>
+      </c>
+      <c r="BM73" t="n">
         <v>1.6</v>
       </c>
-      <c r="BM73" t="n">
+      <c r="BN73" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN73" t="n">
+      <c r="BO73" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BO73" t="n">
+      <c r="BP73" t="n">
         <v>-2</v>
       </c>
-      <c r="BP73" t="n">
+      <c r="BQ73" t="n">
         <v>-1.109999999999999</v>
       </c>
-      <c r="BQ73" t="n">
+      <c r="BR73" t="n">
         <v>17.16889057750759</v>
       </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
       <c r="BS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>75.36174135723408</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>62.00014251781489</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>90.91041551246532</v>
+      </c>
+      <c r="BY73" t="n">
         <v>2.899342457063593</v>
       </c>
-      <c r="BT73" t="n">
+      <c r="BZ73" t="n">
         <v>10</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>-24.53825864276693</v>
       </c>
     </row>
     <row r="74">
@@ -16615,31 +18162,52 @@
         <v>24.03831353919248</v>
       </c>
       <c r="BL74" t="n">
+        <v>19.98737288135596</v>
+      </c>
+      <c r="BM74" t="n">
         <v>1.283333333333333</v>
       </c>
-      <c r="BM74" t="n">
+      <c r="BN74" t="n">
         <v>0.1899999999999995</v>
       </c>
-      <c r="BN74" t="n">
+      <c r="BO74" t="n">
         <v>3.899999999999999</v>
       </c>
-      <c r="BO74" t="n">
+      <c r="BP74" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP74" t="n">
+      <c r="BQ74" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ74" t="n">
+      <c r="BR74" t="n">
         <v>16.67462848297214</v>
       </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
       <c r="BS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>99.62876160990776</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>72.22620155038743</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>59.96845605700723</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>86.76398305084753</v>
+      </c>
+      <c r="BY74" t="n">
         <v>5.513304333565451</v>
       </c>
-      <c r="BT74" t="n">
+      <c r="BZ74" t="n">
         <v>10</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>-27.40256005952033</v>
       </c>
     </row>
     <row r="75">
@@ -16833,31 +18401,52 @@
         <v>23.19910628019331</v>
       </c>
       <c r="BL75" t="n">
+        <v>18.83401662049862</v>
+      </c>
+      <c r="BM75" t="n">
         <v>0.95</v>
       </c>
-      <c r="BM75" t="n">
+      <c r="BN75" t="n">
         <v>0.3899999999999988</v>
       </c>
-      <c r="BN75" t="n">
+      <c r="BO75" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BO75" t="n">
+      <c r="BP75" t="n">
         <v>-2</v>
       </c>
-      <c r="BP75" t="n">
+      <c r="BQ75" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ75" t="n">
+      <c r="BR75" t="n">
         <v>16.31825878594253</v>
       </c>
-      <c r="BR75" t="n">
-        <v>0</v>
-      </c>
       <c r="BS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>99.8814696485634</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>63.26515503875953</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>48.18770531400978</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>80.51362880886441</v>
+      </c>
+      <c r="BY75" t="n">
         <v>4.843640438863819</v>
       </c>
-      <c r="BT75" t="n">
+      <c r="BZ75" t="n">
         <v>10</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>-36.61631460980387</v>
       </c>
     </row>
     <row r="76">
@@ -17051,31 +18640,52 @@
         <v>24.31430992736084</v>
       </c>
       <c r="BL76" t="n">
+        <v>18.54994236311239</v>
+      </c>
+      <c r="BM76" t="n">
         <v>1.483333333333333</v>
       </c>
-      <c r="BM76" t="n">
+      <c r="BN76" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN76" t="n">
+      <c r="BO76" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO76" t="n">
+      <c r="BP76" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP76" t="n">
+      <c r="BQ76" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BQ76" t="n">
+      <c r="BR76" t="n">
         <v>17.67238021638332</v>
       </c>
-      <c r="BR76" t="n">
-        <v>0</v>
-      </c>
       <c r="BS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>99.89919629057289</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>54.30770750988125</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>35.57886198547223</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>76.52412103746398</v>
+      </c>
+      <c r="BY76" t="n">
         <v>4.005946529334846</v>
       </c>
-      <c r="BT76" t="n">
+      <c r="BZ76" t="n">
         <v>10</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>-45.59148878069164</v>
       </c>
     </row>
     <row r="77">
@@ -17269,31 +18879,52 @@
         <v>28.40349168646094</v>
       </c>
       <c r="BL77" t="n">
+        <v>22.05121883656509</v>
+      </c>
+      <c r="BM77" t="n">
         <v>1.483333333333333</v>
       </c>
-      <c r="BM77" t="n">
+      <c r="BN77" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN77" t="n">
+      <c r="BO77" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO77" t="n">
+      <c r="BP77" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP77" t="n">
+      <c r="BQ77" t="n">
         <v>4.289999999999999</v>
       </c>
-      <c r="BQ77" t="n">
+      <c r="BR77" t="n">
         <v>17.27048309178744</v>
       </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
       <c r="BS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>96.26167471819689</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>61.78719590268862</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>45.53776722090271</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>80.70110803324107</v>
+      </c>
+      <c r="BY77" t="n">
         <v>8.197711530491773</v>
       </c>
-      <c r="BT77" t="n">
+      <c r="BZ77" t="n">
         <v>11</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>-34.47447881550826</v>
       </c>
     </row>
     <row r="78">
@@ -17487,31 +19118,52 @@
         <v>26.66204275534453</v>
       </c>
       <c r="BL78" t="n">
+        <v>22.25063711911359</v>
+      </c>
+      <c r="BM78" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="BM78" t="n">
+      <c r="BN78" t="n">
         <v>0.8100000000000005</v>
       </c>
-      <c r="BN78" t="n">
+      <c r="BO78" t="n">
         <v>4.289999999999999</v>
       </c>
-      <c r="BO78" t="n">
+      <c r="BP78" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP78" t="n">
+      <c r="BQ78" t="n">
         <v>4.789999999999999</v>
       </c>
-      <c r="BQ78" t="n">
+      <c r="BR78" t="n">
         <v>16.81949924127466</v>
       </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
       <c r="BS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>99.83004552352148</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>128</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>56.83468629961585</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>38.35144893111637</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>78.33332409972313</v>
+      </c>
+      <c r="BY78" t="n">
         <v>7.800987314423264</v>
       </c>
-      <c r="BT78" t="n">
+      <c r="BZ78" t="n">
         <v>11</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>-42.99535922390563</v>
       </c>
     </row>
     <row r="79">
@@ -17705,31 +19357,52 @@
         <v>23.65002403846161</v>
       </c>
       <c r="BL79" t="n">
+        <v>18.89434903047091</v>
+      </c>
+      <c r="BM79" t="n">
         <v>0.3</v>
       </c>
-      <c r="BM79" t="n">
+      <c r="BN79" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="BN79" t="n">
+      <c r="BO79" t="n">
         <v>1.190000000000001</v>
       </c>
-      <c r="BO79" t="n">
+      <c r="BP79" t="n">
         <v>-0.8100000000000005</v>
       </c>
-      <c r="BP79" t="n">
+      <c r="BQ79" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BQ79" t="n">
+      <c r="BR79" t="n">
         <v>19.1942943854326</v>
       </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
       <c r="BS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>97.77088917525755</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>95.92838942307729</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY79" t="n">
         <v>2.24522881044382</v>
       </c>
-      <c r="BT79" t="n">
+      <c r="BZ79" t="n">
         <v>11</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>-2.129110824743449</v>
       </c>
     </row>
     <row r="80">
@@ -17923,31 +19596,52 @@
         <v>18.09553444180524</v>
       </c>
       <c r="BL80" t="n">
-        <v>0</v>
+        <v>17.71221606648199</v>
       </c>
       <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN80" t="n">
+      <c r="BO80" t="n">
         <v>1.1</v>
       </c>
-      <c r="BO80" t="n">
+      <c r="BP80" t="n">
         <v>-1.199999999999999</v>
       </c>
-      <c r="BP80" t="n">
+      <c r="BQ80" t="n">
         <v>-6.109999999999999</v>
       </c>
-      <c r="BQ80" t="n">
+      <c r="BR80" t="n">
         <v>15.0131458966566</v>
       </c>
-      <c r="BR80" t="n">
-        <v>0</v>
-      </c>
       <c r="BS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY80" t="n">
         <v>2.903921965059267</v>
       </c>
-      <c r="BT80" t="n">
+      <c r="BZ80" t="n">
         <v>11</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>-1.080024958355352e-12</v>
       </c>
     </row>
     <row r="81">
@@ -18141,31 +19835,52 @@
         <v>20.9015513126492</v>
       </c>
       <c r="BL81" t="n">
-        <v>0</v>
+        <v>16.86113573407204</v>
       </c>
       <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="BN81" t="n">
+      <c r="BO81" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BO81" t="n">
+      <c r="BP81" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP81" t="n">
+      <c r="BQ81" t="n">
         <v>-1.300000000000001</v>
       </c>
-      <c r="BQ81" t="n">
+      <c r="BR81" t="n">
         <v>16.0398589341693</v>
       </c>
-      <c r="BR81" t="n">
-        <v>0</v>
-      </c>
       <c r="BS81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>98.82709884467226</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>99.04510739856886</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>98.56952908587269</v>
+      </c>
+      <c r="BY81" t="n">
         <v>2.991488947730709</v>
       </c>
-      <c r="BT81" t="n">
+      <c r="BZ81" t="n">
         <v>11</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>-1.072901155328751</v>
       </c>
     </row>
     <row r="82">
@@ -18359,31 +20074,52 @@
         <v>25.00988123515448</v>
       </c>
       <c r="BL82" t="n">
+        <v>19.59675362318841</v>
+      </c>
+      <c r="BM82" t="n">
         <v>1.25</v>
       </c>
-      <c r="BM82" t="n">
+      <c r="BN82" t="n">
         <v>1</v>
       </c>
-      <c r="BN82" t="n">
+      <c r="BO82" t="n">
         <v>5.300000000000001</v>
       </c>
-      <c r="BO82" t="n">
+      <c r="BP82" t="n">
         <v>-4.199999999999999</v>
       </c>
-      <c r="BP82" t="n">
+      <c r="BQ82" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BQ82" t="n">
+      <c r="BR82" t="n">
         <v>15.31429237947126</v>
       </c>
-      <c r="BR82" t="n">
-        <v>0</v>
-      </c>
       <c r="BS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>97.21292379471251</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>70</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>55.08711111111098</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>36.81586698337301</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>77.32481159420303</v>
+      </c>
+      <c r="BY82" t="n">
         <v>7.254779515953688</v>
       </c>
-      <c r="BT82" t="n">
+      <c r="BZ82" t="n">
         <v>11</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>-42.12581268360153</v>
       </c>
     </row>
     <row r="83">
@@ -18577,31 +20313,52 @@
         <v>24.6664370546319</v>
       </c>
       <c r="BL83" t="n">
+        <v>19.78973607038123</v>
+      </c>
+      <c r="BM83" t="n">
         <v>1.8</v>
       </c>
-      <c r="BM83" t="n">
+      <c r="BN83" t="n">
         <v>1.19</v>
       </c>
-      <c r="BN83" t="n">
+      <c r="BO83" t="n">
         <v>4.710000000000001</v>
       </c>
-      <c r="BO83" t="n">
+      <c r="BP83" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP83" t="n">
+      <c r="BQ83" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BQ83" t="n">
+      <c r="BR83" t="n">
         <v>15.64586092715226</v>
       </c>
-      <c r="BR83" t="n">
-        <v>0</v>
-      </c>
       <c r="BS83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>98.99488410596038</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>74.60590013140587</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>62.84874109263673</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>89.08375366568903</v>
+      </c>
+      <c r="BY83" t="n">
         <v>6.833600308064666</v>
       </c>
-      <c r="BT83" t="n">
+      <c r="BZ83" t="n">
         <v>11</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>-24.38898397455451</v>
       </c>
     </row>
     <row r="84">
@@ -18795,31 +20552,52 @@
         <v>24.7381472684086</v>
       </c>
       <c r="BL84" t="n">
+        <v>19.79437317784256</v>
+      </c>
+      <c r="BM84" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="BM84" t="n">
+      <c r="BN84" t="n">
         <v>1.110000000000001</v>
       </c>
-      <c r="BN84" t="n">
+      <c r="BO84" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BO84" t="n">
+      <c r="BP84" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP84" t="n">
+      <c r="BQ84" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BQ84" t="n">
+      <c r="BR84" t="n">
         <v>16.24518518518514</v>
       </c>
-      <c r="BR84" t="n">
-        <v>0</v>
-      </c>
       <c r="BS84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>99.49236714975882</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>79.35180865006554</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>72.47116389548708</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>87.76285714285704</v>
+      </c>
+      <c r="BY84" t="n">
         <v>6.270332508130856</v>
       </c>
-      <c r="BT84" t="n">
+      <c r="BZ84" t="n">
         <v>11</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>-20.14055849969328</v>
       </c>
     </row>
     <row r="85">
@@ -19013,31 +20791,52 @@
         <v>23.7831591448932</v>
       </c>
       <c r="BL85" t="n">
+        <v>18.7503324099723</v>
+      </c>
+      <c r="BM85" t="n">
         <v>1.35</v>
       </c>
-      <c r="BM85" t="n">
+      <c r="BN85" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="BN85" t="n">
+      <c r="BO85" t="n">
         <v>4.5</v>
       </c>
-      <c r="BO85" t="n">
+      <c r="BP85" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP85" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR85" t="n">
         <v>14.45275000000005</v>
       </c>
-      <c r="BR85" t="n">
-        <v>0</v>
-      </c>
       <c r="BS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>96.41412500000021</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>69.3341101152366</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>46.81083135391939</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>95.60434903047116</v>
+      </c>
+      <c r="BY85" t="n">
         <v>7.003319142125548</v>
       </c>
-      <c r="BT85" t="n">
+      <c r="BZ85" t="n">
         <v>11</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>-27.08001488476361</v>
       </c>
     </row>
     <row r="86">
@@ -19231,31 +21030,52 @@
         <v>25.21292161520196</v>
       </c>
       <c r="BL86" t="n">
+        <v>19.88548476454293</v>
+      </c>
+      <c r="BM86" t="n">
         <v>0.9833333333333333</v>
       </c>
-      <c r="BM86" t="n">
+      <c r="BN86" t="n">
         <v>1.610000000000001</v>
       </c>
-      <c r="BN86" t="n">
+      <c r="BO86" t="n">
         <v>4.710000000000001</v>
       </c>
-      <c r="BO86" t="n">
+      <c r="BP86" t="n">
         <v>-4.31</v>
       </c>
-      <c r="BP86" t="n">
+      <c r="BQ86" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ86" t="n">
+      <c r="BR86" t="n">
         <v>16.36206373292879</v>
       </c>
-      <c r="BR86" t="n">
-        <v>0</v>
-      </c>
       <c r="BS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>168</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>64.49235595390518</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>48.71479809976255</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>82.83462603878127</v>
+      </c>
+      <c r="BY86" t="n">
         <v>6.388000287557897</v>
       </c>
-      <c r="BT86" t="n">
+      <c r="BZ86" t="n">
         <v>11</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>-35.40764404609583</v>
       </c>
     </row>
     <row r="87">
@@ -19449,31 +21269,52 @@
         <v>26.21838479809984</v>
       </c>
       <c r="BL87" t="n">
+        <v>22.98498614958451</v>
+      </c>
+      <c r="BM87" t="n">
         <v>6.533333333333333</v>
       </c>
-      <c r="BM87" t="n">
+      <c r="BN87" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="BN87" t="n">
+      <c r="BO87" t="n">
         <v>5.710000000000001</v>
       </c>
-      <c r="BO87" t="n">
+      <c r="BP87" t="n">
         <v>-1</v>
       </c>
-      <c r="BP87" t="n">
+      <c r="BQ87" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BQ87" t="n">
+      <c r="BR87" t="n">
         <v>18.89962063732939</v>
       </c>
-      <c r="BR87" t="n">
-        <v>0</v>
-      </c>
       <c r="BS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>87.74414852752884</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>85.90334916864616</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>89.86058171745137</v>
+      </c>
+      <c r="BY87" t="n">
         <v>5.822940182132943</v>
       </c>
-      <c r="BT87" t="n">
+      <c r="BZ87" t="n">
         <v>11</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>-12.15585147247216</v>
       </c>
     </row>
     <row r="88">
@@ -19667,31 +21508,52 @@
         <v>27.65885985748228</v>
       </c>
       <c r="BL88" t="n">
+        <v>21.57180055401665</v>
+      </c>
+      <c r="BM88" t="n">
         <v>3</v>
       </c>
-      <c r="BM88" t="n">
+      <c r="BN88" t="n">
         <v>1.689999999999998</v>
       </c>
-      <c r="BN88" t="n">
+      <c r="BO88" t="n">
         <v>6.100000000000001</v>
       </c>
-      <c r="BO88" t="n">
+      <c r="BP88" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BP88" t="n">
+      <c r="BQ88" t="n">
         <v>6.399999999999999</v>
       </c>
-      <c r="BQ88" t="n">
+      <c r="BR88" t="n">
         <v>20.53440060698022</v>
       </c>
-      <c r="BR88" t="n">
-        <v>0</v>
-      </c>
       <c r="BS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>46</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>92.8919590268885</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>89.22788598574856</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>97.16199445983375</v>
+      </c>
+      <c r="BY88" t="n">
         <v>4.31452384884577</v>
       </c>
-      <c r="BT88" t="n">
+      <c r="BZ88" t="n">
         <v>11</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>-7.0080409731125</v>
       </c>
     </row>
     <row r="89">
@@ -19885,31 +21747,52 @@
         <v>22.02738717339675</v>
       </c>
       <c r="BL89" t="n">
-        <v>0</v>
+        <v>23.14224376731307</v>
       </c>
       <c r="BM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN89" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BN89" t="n">
+      <c r="BO89" t="n">
         <v>1.690000000000001</v>
       </c>
-      <c r="BO89" t="n">
+      <c r="BP89" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BP89" t="n">
+      <c r="BQ89" t="n">
         <v>2</v>
       </c>
-      <c r="BQ89" t="n">
+      <c r="BR89" t="n">
         <v>16.44342723004696</v>
       </c>
-      <c r="BR89" t="n">
-        <v>0</v>
-      </c>
       <c r="BS89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>79</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>97.49398207426364</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>97.52042755344472</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>97.45983379501374</v>
+      </c>
+      <c r="BY89" t="n">
         <v>6.097533077251537</v>
       </c>
-      <c r="BT89" t="n">
+      <c r="BZ89" t="n">
         <v>11</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>-2.406017925737373</v>
       </c>
     </row>
     <row r="90">
@@ -20103,31 +21986,52 @@
         <v>21.18030878859862</v>
       </c>
       <c r="BL90" t="n">
+        <v>18.41376731301939</v>
+      </c>
+      <c r="BM90" t="n">
         <v>7.083333333333333</v>
       </c>
-      <c r="BM90" t="n">
+      <c r="BN90" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN90" t="n">
+      <c r="BO90" t="n">
         <v>3.41</v>
       </c>
-      <c r="BO90" t="n">
+      <c r="BP90" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP90" t="n">
+      <c r="BQ90" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BQ90" t="n">
+      <c r="BR90" t="n">
         <v>16.04312883435582</v>
       </c>
-      <c r="BR90" t="n">
-        <v>0</v>
-      </c>
       <c r="BS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>87</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>76.36079385403343</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>73.85546318289805</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>79.27900277008308</v>
+      </c>
+      <c r="BY90" t="n">
         <v>3.861839155401032</v>
       </c>
-      <c r="BT90" t="n">
+      <c r="BZ90" t="n">
         <v>11</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>-23.53920614596758</v>
       </c>
     </row>
     <row r="91">
@@ -20321,31 +22225,52 @@
         <v>23.52064133016638</v>
       </c>
       <c r="BL91" t="n">
+        <v>21.22155124653741</v>
+      </c>
+      <c r="BM91" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="BM91" t="n">
+      <c r="BN91" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BN91" t="n">
+      <c r="BO91" t="n">
         <v>2.609999999999999</v>
       </c>
-      <c r="BO91" t="n">
+      <c r="BP91" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP91" t="n">
+      <c r="BQ91" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ91" t="n">
+      <c r="BR91" t="n">
         <v>15.79842187499995</v>
       </c>
-      <c r="BR91" t="n">
-        <v>0</v>
-      </c>
       <c r="BS91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>99.883406250001</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>60.39989756722164</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>52.10237529691218</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>70.02387811634372</v>
+      </c>
+      <c r="BY91" t="n">
         <v>6.65968311859813</v>
       </c>
-      <c r="BT91" t="n">
+      <c r="BZ91" t="n">
         <v>11</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>-39.48350868277936</v>
       </c>
     </row>
     <row r="92">
@@ -20539,31 +22464,52 @@
         <v>25.20266033254164</v>
       </c>
       <c r="BL92" t="n">
+        <v>21.86825484764545</v>
+      </c>
+      <c r="BM92" t="n">
         <v>3.016666666666667</v>
       </c>
-      <c r="BM92" t="n">
+      <c r="BN92" t="n">
         <v>2.200000000000001</v>
       </c>
-      <c r="BN92" t="n">
+      <c r="BO92" t="n">
         <v>3.91</v>
       </c>
-      <c r="BO92" t="n">
+      <c r="BP92" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP92" t="n">
+      <c r="BQ92" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ92" t="n">
+      <c r="BR92" t="n">
         <v>19.39248861912001</v>
       </c>
-      <c r="BR92" t="n">
-        <v>0</v>
-      </c>
       <c r="BS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>99.87918057663227</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>124</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>72.33627400768235</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>60.96066508313544</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>85.55534626038776</v>
+      </c>
+      <c r="BY92" t="n">
         <v>4.267524184977411</v>
       </c>
-      <c r="BT92" t="n">
+      <c r="BZ92" t="n">
         <v>11</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>-27.54290656894992</v>
       </c>
     </row>
     <row r="93">
@@ -20757,31 +22703,52 @@
         <v>21.31596199524944</v>
       </c>
       <c r="BL93" t="n">
-        <v>0</v>
+        <v>19.3204155124654</v>
       </c>
       <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BN93" t="n">
+      <c r="BO93" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BO93" t="n">
+      <c r="BP93" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BP93" t="n">
+      <c r="BQ93" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BQ93" t="n">
+      <c r="BR93" t="n">
         <v>18.6677389984826</v>
       </c>
-      <c r="BR93" t="n">
-        <v>0</v>
-      </c>
       <c r="BS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY93" t="n">
         <v>1.724821820979713</v>
       </c>
-      <c r="BT93" t="n">
+      <c r="BZ93" t="n">
         <v>11</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>-1.06581410364015e-12</v>
       </c>
     </row>
     <row r="94">
@@ -20975,31 +22942,52 @@
         <v>23.63339667458443</v>
       </c>
       <c r="BL94" t="n">
-        <v>0</v>
+        <v>20.14950138504157</v>
       </c>
       <c r="BM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN94" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN94" t="n">
+      <c r="BO94" t="n">
         <v>5.109999999999999</v>
       </c>
-      <c r="BO94" t="n">
+      <c r="BP94" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP94" t="n">
+      <c r="BQ94" t="n">
         <v>2</v>
       </c>
-      <c r="BQ94" t="n">
+      <c r="BR94" t="n">
         <v>17.24515933232176</v>
       </c>
-      <c r="BR94" t="n">
-        <v>0</v>
-      </c>
       <c r="BS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>99.86166919575213</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>96.32944942381597</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>93.32061757719724</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>99.84628808864323</v>
+      </c>
+      <c r="BY94" t="n">
         <v>4.778438619022811</v>
       </c>
-      <c r="BT94" t="n">
+      <c r="BZ94" t="n">
         <v>11</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>-3.532219771936155</v>
       </c>
     </row>
     <row r="95">
@@ -21193,31 +23181,52 @@
         <v>24.52679334916874</v>
       </c>
       <c r="BL95" t="n">
+        <v>19.70141274238229</v>
+      </c>
+      <c r="BM95" t="n">
         <v>8.183333333333334</v>
       </c>
-      <c r="BM95" t="n">
+      <c r="BN95" t="n">
         <v>2.51</v>
       </c>
-      <c r="BN95" t="n">
+      <c r="BO95" t="n">
         <v>4.900000000000002</v>
       </c>
-      <c r="BO95" t="n">
+      <c r="BP95" t="n">
         <v>-0.3100000000000005</v>
       </c>
-      <c r="BP95" t="n">
+      <c r="BQ95" t="n">
         <v>1</v>
       </c>
-      <c r="BQ95" t="n">
+      <c r="BR95" t="n">
         <v>15.81735963581187</v>
       </c>
-      <c r="BR95" t="n">
-        <v>0</v>
-      </c>
       <c r="BS95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>82.82325224071738</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>74.37458432304031</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>92.66554016620488</v>
+      </c>
+      <c r="BY95" t="n">
         <v>6.481744077376494</v>
       </c>
-      <c r="BT95" t="n">
+      <c r="BZ95" t="n">
         <v>11</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>-17.07674775928362</v>
       </c>
     </row>
     <row r="96">
@@ -21411,31 +23420,52 @@
         <v>23.86185273159154</v>
       </c>
       <c r="BL96" t="n">
+        <v>20.38520775623269</v>
+      </c>
+      <c r="BM96" t="n">
         <v>7.383333333333334</v>
       </c>
-      <c r="BM96" t="n">
+      <c r="BN96" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BN96" t="n">
+      <c r="BO96" t="n">
         <v>3.190000000000001</v>
       </c>
-      <c r="BO96" t="n">
+      <c r="BP96" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP96" t="n">
+      <c r="BQ96" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ96" t="n">
+      <c r="BR96" t="n">
         <v>16.69001567398123</v>
       </c>
-      <c r="BR96" t="n">
-        <v>0</v>
-      </c>
       <c r="BS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>99.82040752351199</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>77.03976952624848</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>69.40608076009501</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>85.90858725761764</v>
+      </c>
+      <c r="BY96" t="n">
         <v>5.563889575698791</v>
       </c>
-      <c r="BT96" t="n">
+      <c r="BZ96" t="n">
         <v>11</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>-22.78063799726351</v>
       </c>
     </row>
     <row r="97">
@@ -21629,31 +23659,52 @@
         <v>23.91211904761912</v>
       </c>
       <c r="BL97" t="n">
+        <v>19.8415512465374</v>
+      </c>
+      <c r="BM97" t="n">
         <v>7.833333333333333</v>
       </c>
-      <c r="BM97" t="n">
+      <c r="BN97" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BN97" t="n">
+      <c r="BO97" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BO97" t="n">
+      <c r="BP97" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP97" t="n">
+      <c r="BQ97" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BQ97" t="n">
+      <c r="BR97" t="n">
         <v>17.50062215478016</v>
       </c>
-      <c r="BR97" t="n">
-        <v>0</v>
-      </c>
       <c r="BS97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>99.89647951441677</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>84.76938461538485</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>77.89583333333326</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>92.75864265927964</v>
+      </c>
+      <c r="BY97" t="n">
         <v>4.52771117855335</v>
       </c>
-      <c r="BT97" t="n">
+      <c r="BZ97" t="n">
         <v>11</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>-15.12709489903192</v>
       </c>
     </row>
     <row r="98">
@@ -21847,31 +23898,52 @@
         <v>23.51522565320673</v>
       </c>
       <c r="BL98" t="n">
+        <v>20.52263157894739</v>
+      </c>
+      <c r="BM98" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="BM98" t="n">
+      <c r="BN98" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="BN98" t="n">
+      <c r="BO98" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="BO98" t="n">
+      <c r="BP98" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BP98" t="n">
+      <c r="BQ98" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BQ98" t="n">
+      <c r="BR98" t="n">
         <v>16.6784673748102</v>
       </c>
-      <c r="BR98" t="n">
-        <v>0</v>
-      </c>
       <c r="BS98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>99.89924127465957</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>73.53364916773344</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>56.54643705463189</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>93.32914127423822</v>
+      </c>
+      <c r="BY98" t="n">
         <v>5.451737490746918</v>
       </c>
-      <c r="BT98" t="n">
+      <c r="BZ98" t="n">
         <v>11</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>-26.36559210692613</v>
       </c>
     </row>
     <row r="99">
@@ -22065,31 +24137,52 @@
         <v>19.9597387173397</v>
       </c>
       <c r="BL99" t="n">
-        <v>0</v>
+        <v>17.19332409972297</v>
       </c>
       <c r="BM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN99" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN99" t="n">
+      <c r="BO99" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO99" t="n">
+      <c r="BP99" t="n">
         <v>-0.6999999999999993</v>
       </c>
-      <c r="BP99" t="n">
+      <c r="BQ99" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="BQ99" t="n">
+      <c r="BR99" t="n">
         <v>18.05499241274673</v>
       </c>
-      <c r="BR99" t="n">
-        <v>0</v>
-      </c>
       <c r="BS99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT99" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV99" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX99" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY99" t="n">
         <v>0.6243289700959274</v>
       </c>
-      <c r="BT99" t="n">
+      <c r="BZ99" t="n">
         <v>11</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>-1.06581410364015e-12</v>
       </c>
     </row>
     <row r="100">
@@ -22283,31 +24376,52 @@
         <v>23.31534441805234</v>
       </c>
       <c r="BL100" t="n">
-        <v>0</v>
+        <v>19.69091412742384</v>
       </c>
       <c r="BM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN100" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BN100" t="n">
+      <c r="BO100" t="n">
         <v>5.810000000000002</v>
       </c>
-      <c r="BO100" t="n">
+      <c r="BP100" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP100" t="n">
+      <c r="BQ100" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ100" t="n">
+      <c r="BR100" t="n">
         <v>16.39788667687599</v>
       </c>
-      <c r="BR100" t="n">
-        <v>0</v>
-      </c>
       <c r="BS100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT100" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV100" t="n">
+        <v>95.27325224071689</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>93.33042755344434</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>97.53016620498624</v>
+      </c>
+      <c r="BY100" t="n">
         <v>5.243060826325127</v>
       </c>
-      <c r="BT100" t="n">
+      <c r="BZ100" t="n">
         <v>11</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>-4.626747759284129</v>
       </c>
     </row>
     <row r="101">
@@ -22501,31 +24615,52 @@
         <v>26.76603325415687</v>
       </c>
       <c r="BL101" t="n">
+        <v>19.33961218836566</v>
+      </c>
+      <c r="BM101" t="n">
         <v>4.683333333333334</v>
       </c>
-      <c r="BM101" t="n">
+      <c r="BN101" t="n">
         <v>0.8099999999999987</v>
       </c>
-      <c r="BN101" t="n">
+      <c r="BO101" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO101" t="n">
+      <c r="BP101" t="n">
         <v>-1</v>
       </c>
-      <c r="BP101" t="n">
+      <c r="BQ101" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BQ101" t="n">
+      <c r="BR101" t="n">
         <v>16.69996965098639</v>
       </c>
-      <c r="BR101" t="n">
-        <v>0</v>
-      </c>
       <c r="BS101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>99.87125948406776</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV101" t="n">
+        <v>89.53980793854072</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>82.38349168646083</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>97.89121883656527</v>
+      </c>
+      <c r="BY101" t="n">
         <v>6.635625739538671</v>
       </c>
-      <c r="BT101" t="n">
+      <c r="BZ101" t="n">
         <v>11</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>-10.33145154552705</v>
       </c>
     </row>
     <row r="102">
@@ -22719,31 +24854,52 @@
         <v>27.66489311163902</v>
       </c>
       <c r="BL102" t="n">
+        <v>22.30468144044323</v>
+      </c>
+      <c r="BM102" t="n">
         <v>4</v>
       </c>
-      <c r="BM102" t="n">
+      <c r="BN102" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BN102" t="n">
+      <c r="BO102" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BO102" t="n">
+      <c r="BP102" t="n">
         <v>-2</v>
       </c>
-      <c r="BP102" t="n">
+      <c r="BQ102" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BQ102" t="n">
+      <c r="BR102" t="n">
         <v>22.43121580547126</v>
       </c>
-      <c r="BR102" t="n">
-        <v>0</v>
-      </c>
       <c r="BS102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>27</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>91.68331626120349</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>88.3524465558197</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>95.54096952908597</v>
+      </c>
+      <c r="BY102" t="n">
         <v>2.754968573530114</v>
       </c>
-      <c r="BT102" t="n">
+      <c r="BZ102" t="n">
         <v>11</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>-8.216683738797528</v>
       </c>
     </row>
     <row r="103">
@@ -22937,31 +25093,52 @@
         <v>25.52864608076018</v>
       </c>
       <c r="BL103" t="n">
-        <v>0</v>
+        <v>25.00072022160675</v>
       </c>
       <c r="BM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN103" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="BN103" t="n">
+      <c r="BO103" t="n">
         <v>0.6900000000000013</v>
       </c>
-      <c r="BO103" t="n">
+      <c r="BP103" t="n">
         <v>5.789999999999999</v>
       </c>
-      <c r="BP103" t="n">
+      <c r="BQ103" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BQ103" t="n">
+      <c r="BR103" t="n">
         <v>24.01223065250389</v>
       </c>
-      <c r="BR103" t="n">
-        <v>0</v>
-      </c>
       <c r="BS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY103" t="n">
         <v>1.271533752105796</v>
       </c>
-      <c r="BT103" t="n">
+      <c r="BZ103" t="n">
         <v>11</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>-1.06581410364015e-12</v>
       </c>
     </row>
     <row r="104">
@@ -23155,31 +25332,52 @@
         <v>26.1519477434681</v>
       </c>
       <c r="BL104" t="n">
-        <v>0</v>
+        <v>25.27515235457067</v>
       </c>
       <c r="BM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN104" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN104" t="n">
+      <c r="BO104" t="n">
         <v>0.6900000000000013</v>
       </c>
-      <c r="BO104" t="n">
+      <c r="BP104" t="n">
         <v>6.289999999999999</v>
       </c>
-      <c r="BP104" t="n">
+      <c r="BQ104" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BQ104" t="n">
+      <c r="BR104" t="n">
         <v>22.44719271623684</v>
       </c>
-      <c r="BR104" t="n">
-        <v>0</v>
-      </c>
       <c r="BS104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT104" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV104" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW104" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX104" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY104" t="n">
         <v>3.297109460459794</v>
       </c>
-      <c r="BT104" t="n">
+      <c r="BZ104" t="n">
         <v>11</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>-1.06581410364015e-12</v>
       </c>
     </row>
     <row r="105">
@@ -23373,31 +25571,52 @@
         <v>23.41591448931124</v>
       </c>
       <c r="BL105" t="n">
-        <v>0</v>
+        <v>22.36365650969531</v>
       </c>
       <c r="BM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN105" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN105" t="n">
+      <c r="BO105" t="n">
         <v>2.210000000000001</v>
       </c>
-      <c r="BO105" t="n">
+      <c r="BP105" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BP105" t="n">
+      <c r="BQ105" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ105" t="n">
+      <c r="BR105" t="n">
         <v>19.50302431610953</v>
       </c>
-      <c r="BR105" t="n">
-        <v>0</v>
-      </c>
       <c r="BS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>99.89108834827138</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>99.88346793349241</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY105" t="n">
         <v>3.426271458538466</v>
       </c>
-      <c r="BT105" t="n">
+      <c r="BZ105" t="n">
         <v>11</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>-0.008911651729633263</v>
       </c>
     </row>
     <row r="106">
@@ -23591,31 +25810,52 @@
         <v>25.87748218527326</v>
       </c>
       <c r="BL106" t="n">
+        <v>19.98113573407204</v>
+      </c>
+      <c r="BM106" t="n">
         <v>5.916666666666667</v>
       </c>
-      <c r="BM106" t="n">
+      <c r="BN106" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BN106" t="n">
+      <c r="BO106" t="n">
         <v>6.699999999999999</v>
       </c>
-      <c r="BO106" t="n">
+      <c r="BP106" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="BP106" t="n">
+      <c r="BQ106" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ106" t="n">
+      <c r="BR106" t="n">
         <v>15.27261001517447</v>
       </c>
-      <c r="BR106" t="n">
-        <v>0</v>
-      </c>
       <c r="BS106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT106" t="n">
+        <v>99.82708649468992</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV106" t="n">
+        <v>88.63491677336775</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>81.61517814726834</v>
+      </c>
+      <c r="BX106" t="n">
+        <v>96.82930747922428</v>
+      </c>
+      <c r="BY106" t="n">
         <v>7.882729293404365</v>
       </c>
-      <c r="BT106" t="n">
+      <c r="BZ106" t="n">
         <v>11</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>-11.19216972132217</v>
       </c>
     </row>
     <row r="107">
@@ -23809,31 +26049,52 @@
         <v>23.80349168646089</v>
       </c>
       <c r="BL107" t="n">
+        <v>21.17423822714683</v>
+      </c>
+      <c r="BM107" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="BM107" t="n">
+      <c r="BN107" t="n">
         <v>5.789999999999999</v>
       </c>
-      <c r="BN107" t="n">
+      <c r="BO107" t="n">
         <v>7.289999999999999</v>
       </c>
-      <c r="BO107" t="n">
+      <c r="BP107" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP107" t="n">
+      <c r="BQ107" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ107" t="n">
+      <c r="BR107" t="n">
         <v>15.56637329286797</v>
       </c>
-      <c r="BR107" t="n">
-        <v>0</v>
-      </c>
       <c r="BS107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>76</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>71.39363636363673</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>68.6342517814727</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>74.55653739612208</v>
+      </c>
+      <c r="BY107" t="n">
         <v>7.019132468975954</v>
       </c>
-      <c r="BT107" t="n">
+      <c r="BZ107" t="n">
         <v>11</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>-28.50636363636427</v>
       </c>
     </row>
     <row r="108">
@@ -24027,31 +26288,52 @@
         <v>25.4924703087887</v>
       </c>
       <c r="BL108" t="n">
+        <v>20.94506925207759</v>
+      </c>
+      <c r="BM108" t="n">
         <v>7.116666666666666</v>
       </c>
-      <c r="BM108" t="n">
+      <c r="BN108" t="n">
         <v>5.710000000000001</v>
       </c>
-      <c r="BN108" t="n">
+      <c r="BO108" t="n">
         <v>4.5</v>
       </c>
-      <c r="BO108" t="n">
+      <c r="BP108" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BP108" t="n">
+      <c r="BQ108" t="n">
         <v>2</v>
       </c>
-      <c r="BQ108" t="n">
+      <c r="BR108" t="n">
         <v>15.74641881638856</v>
       </c>
-      <c r="BR108" t="n">
-        <v>0</v>
-      </c>
       <c r="BS108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>99.68016691957612</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>59</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>83.76495518565966</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>78.79909738717336</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>89.53853185595565</v>
+      </c>
+      <c r="BY108" t="n">
         <v>7.64320986478954</v>
       </c>
-      <c r="BT108" t="n">
+      <c r="BZ108" t="n">
         <v>11</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>-15.91521173391646</v>
       </c>
     </row>
     <row r="109">
@@ -24245,31 +26527,52 @@
         <v>23.58268408551077</v>
       </c>
       <c r="BL109" t="n">
+        <v>21.79260387811636</v>
+      </c>
+      <c r="BM109" t="n">
         <v>0.65</v>
       </c>
-      <c r="BM109" t="n">
+      <c r="BN109" t="n">
         <v>3.51</v>
       </c>
-      <c r="BN109" t="n">
+      <c r="BO109" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BO109" t="n">
+      <c r="BP109" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP109" t="n">
+      <c r="BQ109" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ109" t="n">
+      <c r="BR109" t="n">
         <v>19.55213960546307</v>
       </c>
-      <c r="BR109" t="n">
-        <v>0</v>
-      </c>
       <c r="BS109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>43</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>94.85355953905224</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>94.2292399049887</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>95.55598337950138</v>
+      </c>
+      <c r="BY109" t="n">
         <v>3.200293173026164</v>
       </c>
-      <c r="BT109" t="n">
+      <c r="BZ109" t="n">
         <v>11</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>-5.046440460948759</v>
       </c>
     </row>
     <row r="110">
@@ -24463,31 +26766,52 @@
         <v>26.45076009501195</v>
       </c>
       <c r="BL110" t="n">
+        <v>23.38565096952912</v>
+      </c>
+      <c r="BM110" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="BM110" t="n">
+      <c r="BN110" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="BN110" t="n">
+      <c r="BO110" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="BO110" t="n">
+      <c r="BP110" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP110" t="n">
+      <c r="BQ110" t="n">
         <v>3</v>
       </c>
-      <c r="BQ110" t="n">
+      <c r="BR110" t="n">
         <v>13.97939301972692</v>
       </c>
-      <c r="BR110" t="n">
-        <v>0</v>
-      </c>
       <c r="BS110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>99.87004552352148</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>75.02207426376425</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>63.9628741092637</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>87.8736011080332</v>
+      </c>
+      <c r="BY110" t="n">
         <v>11.05234833750753</v>
       </c>
-      <c r="BT110" t="n">
+      <c r="BZ110" t="n">
         <v>12</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>-24.84797125975723</v>
       </c>
     </row>
     <row r="111">
@@ -24681,31 +27005,52 @@
         <v>25.91285035629463</v>
       </c>
       <c r="BL111" t="n">
+        <v>20.17229916897508</v>
+      </c>
+      <c r="BM111" t="n">
         <v>0.7166666666666667</v>
       </c>
-      <c r="BM111" t="n">
+      <c r="BN111" t="n">
         <v>5.200000000000001</v>
       </c>
-      <c r="BN111" t="n">
+      <c r="BO111" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="BO111" t="n">
+      <c r="BP111" t="n">
         <v>-5.31</v>
       </c>
-      <c r="BP111" t="n">
+      <c r="BQ111" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BQ111" t="n">
+      <c r="BR111" t="n">
         <v>14.81980273141129</v>
       </c>
-      <c r="BR111" t="n">
-        <v>0</v>
-      </c>
       <c r="BS111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>99.83898330804348</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>67.60165172855274</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>48.91888361045149</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>89.35662049861497</v>
+      </c>
+      <c r="BY111" t="n">
         <v>8.438353478575998</v>
       </c>
-      <c r="BT111" t="n">
+      <c r="BZ111" t="n">
         <v>13</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>-32.23733157949074</v>
       </c>
     </row>
     <row r="112">
@@ -24899,31 +27244,52 @@
         <v>26.47589073634215</v>
       </c>
       <c r="BL112" t="n">
+        <v>22.2281388888889</v>
+      </c>
+      <c r="BM112" t="n">
         <v>4.55</v>
       </c>
-      <c r="BM112" t="n">
+      <c r="BN112" t="n">
         <v>6.109999999999999</v>
       </c>
-      <c r="BN112" t="n">
+      <c r="BO112" t="n">
         <v>4.5</v>
       </c>
-      <c r="BO112" t="n">
+      <c r="BP112" t="n">
         <v>-4.609999999999999</v>
       </c>
-      <c r="BP112" t="n">
+      <c r="BQ112" t="n">
         <v>2.890000000000001</v>
       </c>
-      <c r="BQ112" t="n">
+      <c r="BR112" t="n">
         <v>15.91323216995444</v>
       </c>
-      <c r="BR112" t="n">
-        <v>0</v>
-      </c>
       <c r="BS112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>99.8917602427931</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>79.04862820512835</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>72.5719952494061</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>86.5880833333333</v>
+      </c>
+      <c r="BY112" t="n">
         <v>8.601229368507211</v>
       </c>
-      <c r="BT112" t="n">
+      <c r="BZ112" t="n">
         <v>14</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>-20.84313203766474</v>
       </c>
     </row>
     <row r="113">
@@ -25117,31 +27483,52 @@
         <v>30.23992574257444</v>
       </c>
       <c r="BL113" t="n">
+        <v>22.56252077562328</v>
+      </c>
+      <c r="BM113" t="n">
         <v>3.283333333333333</v>
       </c>
-      <c r="BM113" t="n">
+      <c r="BN113" t="n">
         <v>5.989999999999998</v>
       </c>
-      <c r="BN113" t="n">
+      <c r="BO113" t="n">
         <v>6.5</v>
       </c>
-      <c r="BO113" t="n">
+      <c r="BP113" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP113" t="n">
+      <c r="BQ113" t="n">
         <v>6</v>
       </c>
-      <c r="BQ113" t="n">
+      <c r="BR113" t="n">
         <v>17.34344647519583</v>
       </c>
-      <c r="BR113" t="n">
-        <v>0</v>
-      </c>
       <c r="BS113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>99.88843342036625</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>70.80315445026166</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>56.89349009900991</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>86.32559556786701</v>
+      </c>
+      <c r="BY113" t="n">
         <v>9.269262948888052</v>
       </c>
-      <c r="BT113" t="n">
+      <c r="BZ113" t="n">
         <v>15</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>-29.0852789701046</v>
       </c>
     </row>
     <row r="114">
@@ -25335,31 +27722,52 @@
         <v>24.41567695962004</v>
       </c>
       <c r="BL114" t="n">
+        <v>21.22027700831027</v>
+      </c>
+      <c r="BM114" t="n">
         <v>0.3166666666666667</v>
       </c>
-      <c r="BM114" t="n">
+      <c r="BN114" t="n">
         <v>2</v>
       </c>
-      <c r="BN114" t="n">
+      <c r="BO114" t="n">
         <v>2.609999999999999</v>
       </c>
-      <c r="BO114" t="n">
+      <c r="BP114" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BP114" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR114" t="n">
         <v>17.13145675265553</v>
       </c>
-      <c r="BR114" t="n">
-        <v>0</v>
-      </c>
       <c r="BS114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>94.55048655569801</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>91.63228028503569</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>97.94387811634361</v>
+      </c>
+      <c r="BY114" t="n">
         <v>5.806609828650604</v>
       </c>
-      <c r="BT114" t="n">
+      <c r="BZ114" t="n">
         <v>15</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>-5.349513444302985</v>
       </c>
     </row>
     <row r="115">
@@ -25553,31 +27961,52 @@
         <v>29.26619952494072</v>
       </c>
       <c r="BL115" t="n">
+        <v>23.8620775623269</v>
+      </c>
+      <c r="BM115" t="n">
         <v>7.816666666666666</v>
       </c>
-      <c r="BM115" t="n">
+      <c r="BN115" t="n">
         <v>4.51</v>
       </c>
-      <c r="BN115" t="n">
+      <c r="BO115" t="n">
         <v>3.91</v>
       </c>
-      <c r="BO115" t="n">
+      <c r="BP115" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP115" t="n">
+      <c r="BQ115" t="n">
         <v>5.789999999999999</v>
       </c>
-      <c r="BQ115" t="n">
+      <c r="BR115" t="n">
         <v>19.16467374810338</v>
       </c>
-      <c r="BR115" t="n">
-        <v>0</v>
-      </c>
       <c r="BS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>98.7083763277704</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>84.14364916773397</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>78.14589073634195</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>91.10903047091405</v>
+      </c>
+      <c r="BY115" t="n">
         <v>7.602919081602252</v>
       </c>
-      <c r="BT115" t="n">
+      <c r="BZ115" t="n">
         <v>15</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>-14.56472716003643</v>
       </c>
     </row>
     <row r="116">
@@ -25771,31 +28200,52 @@
         <v>27.90133016627088</v>
       </c>
       <c r="BL116" t="n">
-        <v>0</v>
+        <v>24.47135734072025</v>
       </c>
       <c r="BM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN116" t="n">
         <v>2.710000000000001</v>
       </c>
-      <c r="BN116" t="n">
+      <c r="BO116" t="n">
         <v>2</v>
       </c>
-      <c r="BO116" t="n">
+      <c r="BP116" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BP116" t="n">
+      <c r="BQ116" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BQ116" t="n">
+      <c r="BR116" t="n">
         <v>21.56270106221562</v>
       </c>
-      <c r="BR116" t="n">
-        <v>0</v>
-      </c>
       <c r="BS116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>95.41309859154906</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>93.68002375296925</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>97.42778393351784</v>
+      </c>
+      <c r="BY116" t="n">
         <v>4.752574225876621</v>
       </c>
-      <c r="BT116" t="n">
+      <c r="BZ116" t="n">
         <v>15</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>-4.486901408451942</v>
       </c>
     </row>
     <row r="117">
@@ -25989,31 +28439,52 @@
         <v>26.81377672209037</v>
       </c>
       <c r="BL117" t="n">
-        <v>0</v>
+        <v>23.60961218836568</v>
       </c>
       <c r="BM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN117" t="n">
         <v>1.189999999999998</v>
       </c>
-      <c r="BN117" t="n">
+      <c r="BO117" t="n">
         <v>6.100000000000001</v>
       </c>
-      <c r="BO117" t="n">
+      <c r="BP117" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BP117" t="n">
+      <c r="BQ117" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BQ117" t="n">
+      <c r="BR117" t="n">
         <v>16.21447647951436</v>
       </c>
-      <c r="BR117" t="n">
-        <v>0</v>
-      </c>
       <c r="BS117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>99.89798179059281</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>97.93002560819487</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>96.3295724465559</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>99.79692520775683</v>
+      </c>
+      <c r="BY117" t="n">
         <v>9.119159884122116</v>
       </c>
-      <c r="BT117" t="n">
+      <c r="BZ117" t="n">
         <v>16</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>-1.967956182397941</v>
       </c>
     </row>
     <row r="118">
@@ -26207,31 +28678,52 @@
         <v>28.74921615201915</v>
       </c>
       <c r="BL118" t="n">
+        <v>22.34304709141276</v>
+      </c>
+      <c r="BM118" t="n">
         <v>7</v>
       </c>
-      <c r="BM118" t="n">
+      <c r="BN118" t="n">
         <v>5.1</v>
       </c>
-      <c r="BN118" t="n">
+      <c r="BO118" t="n">
         <v>6.5</v>
       </c>
-      <c r="BO118" t="n">
+      <c r="BP118" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP118" t="n">
+      <c r="BQ118" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BQ118" t="n">
+      <c r="BR118" t="n">
         <v>17.52610015174505</v>
       </c>
-      <c r="BR118" t="n">
-        <v>0</v>
-      </c>
       <c r="BS118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT118" t="n">
+        <v>99.67389984825593</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV118" t="n">
+        <v>84.45728553137032</v>
+      </c>
+      <c r="BW118" t="n">
+        <v>75.33954869358671</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>95.07476454293618</v>
+      </c>
+      <c r="BY118" t="n">
         <v>8.26374619908735</v>
       </c>
-      <c r="BT118" t="n">
+      <c r="BZ118" t="n">
         <v>17</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>-15.21661431688561</v>
       </c>
     </row>
     <row r="119">
@@ -26425,31 +28917,52 @@
         <v>32.28292161520196</v>
       </c>
       <c r="BL119" t="n">
+        <v>24.8670637119114</v>
+      </c>
+      <c r="BM119" t="n">
         <v>2.483333333333333</v>
       </c>
-      <c r="BM119" t="n">
+      <c r="BN119" t="n">
         <v>5.1</v>
       </c>
-      <c r="BN119" t="n">
+      <c r="BO119" t="n">
         <v>8.400000000000002</v>
       </c>
-      <c r="BO119" t="n">
+      <c r="BP119" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP119" t="n">
+      <c r="BQ119" t="n">
         <v>8.590000000000003</v>
       </c>
-      <c r="BQ119" t="n">
+      <c r="BR119" t="n">
         <v>16.63989377845213</v>
       </c>
-      <c r="BR119" t="n">
+      <c r="BS119" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="BS119" t="n">
+      <c r="BT119" t="n">
+        <v>98.83160849772484</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>62</v>
+      </c>
+      <c r="BV119" t="n">
+        <v>76.63622279129287</v>
+      </c>
+      <c r="BW119" t="n">
+        <v>60.49361045130658</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>95.43512465373942</v>
+      </c>
+      <c r="BY119" t="n">
         <v>12.21520225227783</v>
       </c>
-      <c r="BT119" t="n">
+      <c r="BZ119" t="n">
         <v>18</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>-22.19538570643198</v>
       </c>
     </row>
     <row r="120">
@@ -26643,31 +29156,52 @@
         <v>32.30966745843246</v>
       </c>
       <c r="BL120" t="n">
+        <v>24.35603878116349</v>
+      </c>
+      <c r="BM120" t="n">
         <v>2.716666666666667</v>
       </c>
-      <c r="BM120" t="n">
+      <c r="BN120" t="n">
         <v>5.399999999999999</v>
       </c>
-      <c r="BN120" t="n">
+      <c r="BO120" t="n">
         <v>8</v>
       </c>
-      <c r="BO120" t="n">
+      <c r="BP120" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP120" t="n">
+      <c r="BQ120" t="n">
         <v>8.200000000000003</v>
       </c>
-      <c r="BQ120" t="n">
+      <c r="BR120" t="n">
         <v>17.07758725341424</v>
       </c>
-      <c r="BR120" t="n">
+      <c r="BS120" t="n">
         <v>0.3666666666666666</v>
       </c>
-      <c r="BS120" t="n">
+      <c r="BT120" t="n">
+        <v>98.03925644916642</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>38</v>
+      </c>
+      <c r="BV120" t="n">
+        <v>71.04413572343113</v>
+      </c>
+      <c r="BW120" t="n">
+        <v>55.66536817102166</v>
+      </c>
+      <c r="BX120" t="n">
+        <v>88.95606648199436</v>
+      </c>
+      <c r="BY120" t="n">
         <v>11.55519123570245</v>
       </c>
-      <c r="BT120" t="n">
+      <c r="BZ120" t="n">
         <v>19</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>-26.99512072573529</v>
       </c>
     </row>
     <row r="121">
@@ -26861,31 +29395,52 @@
         <v>31.78002375296919</v>
       </c>
       <c r="BL121" t="n">
+        <v>23.71567867036015</v>
+      </c>
+      <c r="BM121" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="BM121" t="n">
+      <c r="BN121" t="n">
         <v>4.790000000000001</v>
       </c>
-      <c r="BN121" t="n">
+      <c r="BO121" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="BO121" t="n">
+      <c r="BP121" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP121" t="n">
+      <c r="BQ121" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="BQ121" t="n">
+      <c r="BR121" t="n">
         <v>18.30799696509875</v>
       </c>
-      <c r="BR121" t="n">
+      <c r="BS121" t="n">
         <v>0.7</v>
       </c>
-      <c r="BS121" t="n">
+      <c r="BT121" t="n">
+        <v>97.68493171472025</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>25</v>
+      </c>
+      <c r="BV121" t="n">
+        <v>68.50189500640161</v>
+      </c>
+      <c r="BW121" t="n">
+        <v>52.27719714964387</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>87.38468144044315</v>
+      </c>
+      <c r="BY121" t="n">
         <v>9.745460141175379</v>
       </c>
-      <c r="BT121" t="n">
+      <c r="BZ121" t="n">
         <v>20</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>-29.18303670831864</v>
       </c>
     </row>
     <row r="122">
@@ -27079,31 +29634,52 @@
         <v>27.68741092636593</v>
       </c>
       <c r="BL122" t="n">
+        <v>23.92603878116348</v>
+      </c>
+      <c r="BM122" t="n">
         <v>6.2</v>
       </c>
-      <c r="BM122" t="n">
+      <c r="BN122" t="n">
         <v>2.290000000000001</v>
       </c>
-      <c r="BN122" t="n">
+      <c r="BO122" t="n">
         <v>3.099999999999998</v>
       </c>
-      <c r="BO122" t="n">
+      <c r="BP122" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP122" t="n">
+      <c r="BQ122" t="n">
         <v>4.890000000000001</v>
       </c>
-      <c r="BQ122" t="n">
+      <c r="BR122" t="n">
         <v>20.02786039453742</v>
       </c>
-      <c r="BR122" t="n">
-        <v>0</v>
-      </c>
       <c r="BS122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT122" t="n">
+        <v>99.56426403641984</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV122" t="n">
+        <v>86.05793854033323</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>79.64304038004749</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>93.51919667590016</v>
+      </c>
+      <c r="BY122" t="n">
         <v>5.917210027997893</v>
       </c>
-      <c r="BT122" t="n">
+      <c r="BZ122" t="n">
         <v>20</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>-13.50632549608662</v>
       </c>
     </row>
     <row r="123">
@@ -27297,31 +29873,52 @@
         <v>29.02294536817116</v>
       </c>
       <c r="BL123" t="n">
+        <v>25.79249307479228</v>
+      </c>
+      <c r="BM123" t="n">
         <v>3.55</v>
       </c>
-      <c r="BM123" t="n">
+      <c r="BN123" t="n">
         <v>2.189999999999998</v>
       </c>
-      <c r="BN123" t="n">
+      <c r="BO123" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="BO123" t="n">
+      <c r="BP123" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BP123" t="n">
+      <c r="BQ123" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="BQ123" t="n">
+      <c r="BR123" t="n">
         <v>19.38450682852814</v>
       </c>
-      <c r="BR123" t="n">
-        <v>0</v>
-      </c>
       <c r="BS123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT123" t="n">
+        <v>99.87499241274759</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV123" t="n">
+        <v>90.18700384122938</v>
+      </c>
+      <c r="BW123" t="n">
+        <v>87.17866983372922</v>
+      </c>
+      <c r="BX123" t="n">
+        <v>93.67180055401653</v>
+      </c>
+      <c r="BY123" t="n">
         <v>8.144622492854786</v>
       </c>
-      <c r="BT123" t="n">
+      <c r="BZ123" t="n">
         <v>21</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>-9.687988571518204</v>
       </c>
     </row>
     <row r="124">
@@ -27515,31 +30112,52 @@
         <v>30.2428028503564</v>
       </c>
       <c r="BL124" t="n">
+        <v>24.68161111111115</v>
+      </c>
+      <c r="BM124" t="n">
         <v>0.7833333333333333</v>
       </c>
-      <c r="BM124" t="n">
+      <c r="BN124" t="n">
         <v>2.210000000000001</v>
       </c>
-      <c r="BN124" t="n">
+      <c r="BO124" t="n">
         <v>5.59</v>
       </c>
-      <c r="BO124" t="n">
+      <c r="BP124" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BP124" t="n">
+      <c r="BQ124" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ124" t="n">
+      <c r="BR124" t="n">
         <v>20.57220364741651</v>
       </c>
-      <c r="BR124" t="n">
-        <v>0</v>
-      </c>
       <c r="BS124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT124" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV124" t="n">
+        <v>94.11551282051293</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>91.14102137767227</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>97.5909166666666</v>
+      </c>
+      <c r="BY124" t="n">
         <v>7.104206608993817</v>
       </c>
-      <c r="BT124" t="n">
+      <c r="BZ124" t="n">
         <v>21</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>-5.784487179488082</v>
       </c>
     </row>
     <row r="125">
@@ -27733,31 +30351,52 @@
         <v>30.50489311163907</v>
       </c>
       <c r="BL125" t="n">
-        <v>0</v>
+        <v>23.08855955678672</v>
       </c>
       <c r="BM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN125" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="BN125" t="n">
+      <c r="BO125" t="n">
         <v>5.300000000000001</v>
       </c>
-      <c r="BO125" t="n">
+      <c r="BP125" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BP125" t="n">
+      <c r="BQ125" t="n">
         <v>6.090000000000003</v>
       </c>
-      <c r="BQ125" t="n">
+      <c r="BR125" t="n">
         <v>20.50192716236741</v>
       </c>
-      <c r="BR125" t="n">
-        <v>0</v>
-      </c>
       <c r="BS125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>99.88681335356701</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>96.58220230473799</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>93.83220902612833</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>99.79509695290919</v>
+      </c>
+      <c r="BY125" t="n">
         <v>6.577240571307435</v>
       </c>
-      <c r="BT125" t="n">
+      <c r="BZ125" t="n">
         <v>21</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>-3.304611048829017</v>
       </c>
     </row>
     <row r="126">
@@ -27951,31 +30590,52 @@
         <v>28.52247030878871</v>
       </c>
       <c r="BL126" t="n">
-        <v>0</v>
+        <v>22.80290858725762</v>
       </c>
       <c r="BM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN126" t="n">
         <v>1</v>
       </c>
-      <c r="BN126" t="n">
+      <c r="BO126" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BO126" t="n">
+      <c r="BP126" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BP126" t="n">
+      <c r="BQ126" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="BQ126" t="n">
+      <c r="BR126" t="n">
         <v>18.85535660091056</v>
       </c>
-      <c r="BR126" t="n">
-        <v>0</v>
-      </c>
       <c r="BS126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT126" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV126" t="n">
+        <v>96.52247119078115</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>94.15019002375301</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>99.29146814404454</v>
+      </c>
+      <c r="BY126" t="n">
         <v>7.025962221112589</v>
       </c>
-      <c r="BT126" t="n">
+      <c r="BZ126" t="n">
         <v>21</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>-3.377528809219854</v>
       </c>
     </row>
     <row r="127">
@@ -28169,31 +30829,52 @@
         <v>29.31007125890752</v>
       </c>
       <c r="BL127" t="n">
+        <v>25.39673130193912</v>
+      </c>
+      <c r="BM127" t="n">
         <v>0.4</v>
       </c>
-      <c r="BM127" t="n">
+      <c r="BN127" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="BN127" t="n">
+      <c r="BO127" t="n">
         <v>2.710000000000001</v>
       </c>
-      <c r="BO127" t="n">
+      <c r="BP127" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP127" t="n">
+      <c r="BQ127" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="BQ127" t="n">
+      <c r="BR127" t="n">
         <v>21.17606980273156</v>
       </c>
-      <c r="BR127" t="n">
-        <v>0</v>
-      </c>
       <c r="BS127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT127" t="n">
+        <v>99.79990895296002</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV127" t="n">
+        <v>94.56796414852766</v>
+      </c>
+      <c r="BW127" t="n">
+        <v>91.67591448931114</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>97.93191135734065</v>
+      </c>
+      <c r="BY127" t="n">
         <v>6.322611375245458</v>
       </c>
-      <c r="BT127" t="n">
+      <c r="BZ127" t="n">
         <v>21</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>-5.231944804432359</v>
       </c>
     </row>
     <row r="128">
@@ -28387,31 +31068,52 @@
         <v>26.33524940617596</v>
       </c>
       <c r="BL128" t="n">
-        <v>0</v>
+        <v>24.36385041551249</v>
       </c>
       <c r="BM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN128" t="n">
         <v>2.690000000000001</v>
       </c>
-      <c r="BN128" t="n">
+      <c r="BO128" t="n">
         <v>1</v>
       </c>
-      <c r="BO128" t="n">
+      <c r="BP128" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="BP128" t="n">
+      <c r="BQ128" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BQ128" t="n">
+      <c r="BR128" t="n">
         <v>21.43578148710178</v>
       </c>
-      <c r="BR128" t="n">
-        <v>0</v>
-      </c>
       <c r="BS128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT128" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV128" t="n">
+        <v>95.45355953905238</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>94.61384798099775</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>96.42518005540154</v>
+      </c>
+      <c r="BY128" t="n">
         <v>3.98546051033755</v>
       </c>
-      <c r="BT128" t="n">
+      <c r="BZ128" t="n">
         <v>21</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>-4.446440460948622</v>
       </c>
     </row>
     <row r="129">
@@ -28605,31 +31307,52 @@
         <v>25.04985748218536</v>
       </c>
       <c r="BL129" t="n">
-        <v>0</v>
+        <v>23.0106371191136</v>
       </c>
       <c r="BM129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN129" t="n">
         <v>1</v>
       </c>
-      <c r="BN129" t="n">
+      <c r="BO129" t="n">
         <v>4.59</v>
       </c>
-      <c r="BO129" t="n">
+      <c r="BP129" t="n">
         <v>3.289999999999999</v>
       </c>
-      <c r="BP129" t="n">
+      <c r="BQ129" t="n">
         <v>3</v>
       </c>
-      <c r="BQ129" t="n">
+      <c r="BR129" t="n">
         <v>20.05004552352068</v>
       </c>
-      <c r="BR129" t="n">
-        <v>0</v>
-      </c>
       <c r="BS129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT129" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV129" t="n">
+        <v>98.6233546734951</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>98.47553444180602</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>98.7831855955681</v>
+      </c>
+      <c r="BY129" t="n">
         <v>4.052950635250227</v>
       </c>
-      <c r="BT129" t="n">
+      <c r="BZ129" t="n">
         <v>21</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>-1.2766453265059</v>
       </c>
     </row>
     <row r="130">
@@ -28823,31 +31546,52 @@
         <v>26.0004513064134</v>
       </c>
       <c r="BL130" t="n">
-        <v>0</v>
+        <v>22.95850415512469</v>
       </c>
       <c r="BM130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN130" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="BN130" t="n">
+      <c r="BO130" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="BO130" t="n">
+      <c r="BP130" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BP130" t="n">
+      <c r="BQ130" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ130" t="n">
+      <c r="BR130" t="n">
         <v>17.6214719271624</v>
       </c>
-      <c r="BR130" t="n">
-        <v>0</v>
-      </c>
       <c r="BS130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT130" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV130" t="n">
+        <v>99.07070422535267</v>
+      </c>
+      <c r="BW130" t="n">
+        <v>98.36156769596215</v>
+      </c>
+      <c r="BX130" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY130" t="n">
         <v>6.974571606768595</v>
       </c>
-      <c r="BT130" t="n">
+      <c r="BZ130" t="n">
         <v>21</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>-0.8292957746483296</v>
       </c>
     </row>
     <row r="131">
@@ -29041,31 +31785,52 @@
         <v>28.01214285714294</v>
       </c>
       <c r="BL131" t="n">
-        <v>0</v>
+        <v>22.92983333333335</v>
       </c>
       <c r="BM131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN131" t="n">
         <v>2.309999999999999</v>
       </c>
-      <c r="BN131" t="n">
+      <c r="BO131" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BO131" t="n">
+      <c r="BP131" t="n">
         <v>-0.6999999999999993</v>
       </c>
-      <c r="BP131" t="n">
+      <c r="BQ131" t="n">
         <v>4.390000000000001</v>
       </c>
-      <c r="BQ131" t="n">
+      <c r="BR131" t="n">
         <v>20.54437025796674</v>
       </c>
-      <c r="BR131" t="n">
-        <v>0</v>
-      </c>
       <c r="BS131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT131" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV131" t="n">
+        <v>97.01270860077025</v>
+      </c>
+      <c r="BW131" t="n">
+        <v>94.69364285714302</v>
+      </c>
+      <c r="BX131" t="n">
+        <v>99.72047222222274</v>
+      </c>
+      <c r="BY131" t="n">
         <v>5.118081603394057</v>
       </c>
-      <c r="BT131" t="n">
+      <c r="BZ131" t="n">
         <v>21</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>-2.887291399230747</v>
       </c>
     </row>
     <row r="132">
@@ -29259,31 +32024,52 @@
         <v>29.91204275534452</v>
       </c>
       <c r="BL132" t="n">
-        <v>0</v>
+        <v>23.52603878116345</v>
       </c>
       <c r="BM132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN132" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="BN132" t="n">
+      <c r="BO132" t="n">
         <v>4</v>
       </c>
-      <c r="BO132" t="n">
+      <c r="BP132" t="n">
         <v>3.699999999999999</v>
       </c>
-      <c r="BP132" t="n">
+      <c r="BQ132" t="n">
         <v>6</v>
       </c>
-      <c r="BQ132" t="n">
+      <c r="BR132" t="n">
         <v>21.69738601823718</v>
       </c>
-      <c r="BR132" t="n">
-        <v>0</v>
-      </c>
       <c r="BS132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT132" t="n">
+        <v>99.56006079027442</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV132" t="n">
+        <v>95.74425096030772</v>
+      </c>
+      <c r="BW132" t="n">
+        <v>92.428622327791</v>
+      </c>
+      <c r="BX132" t="n">
+        <v>99.61218836565139</v>
+      </c>
+      <c r="BY132" t="n">
         <v>5.264304122607985</v>
       </c>
-      <c r="BT132" t="n">
+      <c r="BZ132" t="n">
         <v>21</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>-3.815809829966696</v>
       </c>
     </row>
     <row r="133">
@@ -29477,31 +32263,52 @@
         <v>28.95624703087894</v>
       </c>
       <c r="BL133" t="n">
+        <v>24.00091412742387</v>
+      </c>
+      <c r="BM133" t="n">
         <v>2.95</v>
       </c>
-      <c r="BM133" t="n">
+      <c r="BN133" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN133" t="n">
+      <c r="BO133" t="n">
         <v>4.400000000000002</v>
       </c>
-      <c r="BO133" t="n">
+      <c r="BP133" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BP133" t="n">
+      <c r="BQ133" t="n">
         <v>4.890000000000001</v>
       </c>
-      <c r="BQ133" t="n">
+      <c r="BR133" t="n">
         <v>18.74349013657073</v>
       </c>
-      <c r="BR133" t="n">
-        <v>0</v>
-      </c>
       <c r="BS133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT133" t="n">
+        <v>98.97218512898435</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV133" t="n">
+        <v>90.28829705505787</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>85.81719714964368</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>95.49451523545697</v>
+      </c>
+      <c r="BY133" t="n">
         <v>7.921836367910796</v>
       </c>
-      <c r="BT133" t="n">
+      <c r="BZ133" t="n">
         <v>21</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>-8.683888073926482</v>
       </c>
     </row>
     <row r="134">
@@ -29695,31 +32502,52 @@
         <v>29.75000000000014</v>
       </c>
       <c r="BL134" t="n">
+        <v>23.51889196675905</v>
+      </c>
+      <c r="BM134" t="n">
         <v>4.983333333333333</v>
       </c>
-      <c r="BM134" t="n">
+      <c r="BN134" t="n">
         <v>2.9</v>
       </c>
-      <c r="BN134" t="n">
+      <c r="BO134" t="n">
         <v>6.5</v>
       </c>
-      <c r="BO134" t="n">
+      <c r="BP134" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP134" t="n">
+      <c r="BQ134" t="n">
         <v>5.789999999999999</v>
       </c>
-      <c r="BQ134" t="n">
+      <c r="BR134" t="n">
         <v>18.93751138088024</v>
       </c>
-      <c r="BR134" t="n">
-        <v>0</v>
-      </c>
       <c r="BS134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT134" t="n">
+        <v>99.88901365705713</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV134" t="n">
+        <v>86.94979513444339</v>
+      </c>
+      <c r="BW134" t="n">
+        <v>80.00988123515434</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>95.04301939058159</v>
+      </c>
+      <c r="BY134" t="n">
         <v>7.933000783012343</v>
       </c>
-      <c r="BT134" t="n">
+      <c r="BZ134" t="n">
         <v>21</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>-12.93921852261374</v>
       </c>
     </row>
     <row r="135">
@@ -29913,31 +32741,52 @@
         <v>29.09743467933507</v>
       </c>
       <c r="BL135" t="n">
-        <v>0</v>
+        <v>23.48739612188371</v>
       </c>
       <c r="BM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN135" t="n">
         <v>2.599999999999998</v>
       </c>
-      <c r="BN135" t="n">
+      <c r="BO135" t="n">
         <v>3.300000000000001</v>
       </c>
-      <c r="BO135" t="n">
+      <c r="BP135" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BP135" t="n">
+      <c r="BQ135" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ135" t="n">
+      <c r="BR135" t="n">
         <v>21.01130699088166</v>
       </c>
-      <c r="BR135" t="n">
-        <v>0</v>
-      </c>
       <c r="BS135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT135" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV135" t="n">
+        <v>97.73169014084505</v>
+      </c>
+      <c r="BW135" t="n">
+        <v>96.072304038005</v>
+      </c>
+      <c r="BX135" t="n">
+        <v>99.66457063711958</v>
+      </c>
+      <c r="BY135" t="n">
         <v>5.493007989912325</v>
       </c>
-      <c r="BT135" t="n">
+      <c r="BZ135" t="n">
         <v>21</v>
+      </c>
+      <c r="CA135" t="n">
+        <v>-2.168309859155968</v>
       </c>
     </row>
     <row r="136">
@@ -30131,31 +32980,52 @@
         <v>30.35296912114028</v>
       </c>
       <c r="BL136" t="n">
-        <v>0</v>
+        <v>26.45900277008316</v>
       </c>
       <c r="BM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN136" t="n">
         <v>2.900000000000002</v>
       </c>
-      <c r="BN136" t="n">
+      <c r="BO136" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="BO136" t="n">
+      <c r="BP136" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BP136" t="n">
+      <c r="BQ136" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="BQ136" t="n">
+      <c r="BR136" t="n">
         <v>19.5394081942338</v>
       </c>
-      <c r="BR136" t="n">
-        <v>0</v>
-      </c>
       <c r="BS136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT136" t="n">
+        <v>99.82587253414363</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV136" t="n">
+        <v>96.22209987195932</v>
+      </c>
+      <c r="BW136" t="n">
+        <v>94.14617577197157</v>
+      </c>
+      <c r="BX136" t="n">
+        <v>98.64296398891987</v>
+      </c>
+      <c r="BY136" t="n">
         <v>9.012704481822652</v>
       </c>
-      <c r="BT136" t="n">
+      <c r="BZ136" t="n">
         <v>22</v>
+      </c>
+      <c r="CA136" t="n">
+        <v>-3.603772662184312</v>
       </c>
     </row>
     <row r="137">
@@ -30349,31 +33219,52 @@
         <v>24.92235154394307</v>
       </c>
       <c r="BL137" t="n">
-        <v>0</v>
+        <v>21.60617728531857</v>
       </c>
       <c r="BM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN137" t="n">
         <v>1.710000000000001</v>
       </c>
-      <c r="BN137" t="n">
+      <c r="BO137" t="n">
         <v>1.690000000000001</v>
       </c>
-      <c r="BO137" t="n">
+      <c r="BP137" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BP137" t="n">
+      <c r="BQ137" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ137" t="n">
+      <c r="BR137" t="n">
         <v>20.23571428571444</v>
       </c>
-      <c r="BR137" t="n">
-        <v>0</v>
-      </c>
       <c r="BS137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT137" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV137" t="n">
+        <v>99.89999999999993</v>
+      </c>
+      <c r="BW137" t="n">
+        <v>99.90000000000079</v>
+      </c>
+      <c r="BX137" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY137" t="n">
         <v>3.154861898664677</v>
       </c>
-      <c r="BT137" t="n">
+      <c r="BZ137" t="n">
         <v>22</v>
+      </c>
+      <c r="CA137" t="n">
+        <v>-1.080024958355352e-12</v>
       </c>
     </row>
     <row r="138">
@@ -30567,31 +33458,52 @@
         <v>29.53275534441821</v>
       </c>
       <c r="BL138" t="n">
-        <v>0</v>
+        <v>24.23434903047096</v>
       </c>
       <c r="BM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN138" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="BN138" t="n">
+      <c r="BO138" t="n">
         <v>4.809999999999999</v>
       </c>
-      <c r="BO138" t="n">
+      <c r="BP138" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BP138" t="n">
+      <c r="BQ138" t="n">
         <v>6</v>
       </c>
-      <c r="BQ138" t="n">
+      <c r="BR138" t="n">
         <v>19.00775417298954</v>
       </c>
-      <c r="BR138" t="n">
-        <v>0</v>
-      </c>
       <c r="BS138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT138" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV138" t="n">
+        <v>99.08024327784878</v>
+      </c>
+      <c r="BW138" t="n">
+        <v>98.37926365795779</v>
+      </c>
+      <c r="BX138" t="n">
+        <v>99.90000000000067</v>
+      </c>
+      <c r="BY138" t="n">
         <v>8.076240705371553</v>
       </c>
-      <c r="BT138" t="n">
+      <c r="BZ138" t="n">
         <v>23</v>
+      </c>
+      <c r="CA138" t="n">
+        <v>-0.8197567221522206</v>
       </c>
     </row>
     <row r="139">
@@ -30785,31 +33697,52 @@
         <v>31.00387173396682</v>
       </c>
       <c r="BL139" t="n">
+        <v>24.87562326869809</v>
+      </c>
+      <c r="BM139" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="BM139" t="n">
+      <c r="BN139" t="n">
         <v>3.899999999999999</v>
       </c>
-      <c r="BN139" t="n">
+      <c r="BO139" t="n">
         <v>7.390000000000001</v>
       </c>
-      <c r="BO139" t="n">
-        <v>0</v>
-      </c>
       <c r="BP139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ139" t="n">
         <v>7</v>
       </c>
-      <c r="BQ139" t="n">
+      <c r="BR139" t="n">
         <v>18.35584218512901</v>
       </c>
-      <c r="BR139" t="n">
-        <v>0</v>
-      </c>
       <c r="BS139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT139" t="n">
+        <v>99.75500758725441</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV139" t="n">
+        <v>91.68688860435407</v>
+      </c>
+      <c r="BW139" t="n">
+        <v>84.71121140142512</v>
+      </c>
+      <c r="BX139" t="n">
+        <v>99.83806094182893</v>
+      </c>
+      <c r="BY139" t="n">
         <v>9.816027213078513</v>
       </c>
-      <c r="BT139" t="n">
+      <c r="BZ139" t="n">
         <v>24</v>
+      </c>
+      <c r="CA139" t="n">
+        <v>-8.068118982900344</v>
       </c>
     </row>
     <row r="140">
@@ -31003,31 +33936,52 @@
         <v>30.00534441805238</v>
       </c>
       <c r="BL140" t="n">
+        <v>24.46631578947373</v>
+      </c>
+      <c r="BM140" t="n">
         <v>2.416666666666667</v>
       </c>
-      <c r="BM140" t="n">
+      <c r="BN140" t="n">
         <v>2.91</v>
       </c>
-      <c r="BN140" t="n">
+      <c r="BO140" t="n">
         <v>4.289999999999999</v>
       </c>
-      <c r="BO140" t="n">
+      <c r="BP140" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="BP140" t="n">
+      <c r="BQ140" t="n">
         <v>7.090000000000003</v>
       </c>
-      <c r="BQ140" t="n">
+      <c r="BR140" t="n">
         <v>19.97753799392102</v>
       </c>
-      <c r="BR140" t="n">
-        <v>0</v>
-      </c>
       <c r="BS140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT140" t="n">
+        <v>99.82585106383078</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV140" t="n">
+        <v>92.93892445582618</v>
+      </c>
+      <c r="BW140" t="n">
+        <v>87.69757719714964</v>
+      </c>
+      <c r="BX140" t="n">
+        <v>99.04767313019434</v>
+      </c>
+      <c r="BY140" t="n">
         <v>7.465099650125122</v>
       </c>
-      <c r="BT140" t="n">
+      <c r="BZ140" t="n">
         <v>24</v>
+      </c>
+      <c r="CA140" t="n">
+        <v>-6.8869266080046</v>
       </c>
     </row>
     <row r="141">
@@ -31221,31 +34175,52 @@
         <v>28.65954869358679</v>
       </c>
       <c r="BL141" t="n">
+        <v>24.76459833795017</v>
+      </c>
+      <c r="BM141" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="BM141" t="n">
+      <c r="BN141" t="n">
         <v>1.710000000000001</v>
       </c>
-      <c r="BN141" t="n">
+      <c r="BO141" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BO141" t="n">
+      <c r="BP141" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BP141" t="n">
+      <c r="BQ141" t="n">
         <v>4.600000000000001</v>
       </c>
-      <c r="BQ141" t="n">
+      <c r="BR141" t="n">
         <v>19.49597875569058</v>
       </c>
-      <c r="BR141" t="n">
-        <v>0</v>
-      </c>
       <c r="BS141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT141" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV141" t="n">
+        <v>94.90539052496783</v>
+      </c>
+      <c r="BW141" t="n">
+        <v>93.01881235154407</v>
+      </c>
+      <c r="BX141" t="n">
+        <v>97.09385041551243</v>
+      </c>
+      <c r="BY141" t="n">
         <v>7.360730591300531</v>
       </c>
-      <c r="BT141" t="n">
+      <c r="BZ141" t="n">
         <v>24</v>
+      </c>
+      <c r="CA141" t="n">
+        <v>-4.994609475033172</v>
       </c>
     </row>
     <row r="142">
@@ -31439,31 +34414,52 @@
         <v>31.71230403800491</v>
       </c>
       <c r="BL142" t="n">
-        <v>0</v>
+        <v>25.28975069252083</v>
       </c>
       <c r="BM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN142" t="n">
         <v>3.309999999999999</v>
       </c>
-      <c r="BN142" t="n">
+      <c r="BO142" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="BO142" t="n">
+      <c r="BP142" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BP142" t="n">
+      <c r="BQ142" t="n">
         <v>7.090000000000003</v>
       </c>
-      <c r="BQ142" t="n">
+      <c r="BR142" t="n">
         <v>19.46772382397583</v>
       </c>
-      <c r="BR142" t="n">
-        <v>0</v>
-      </c>
       <c r="BS142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT142" t="n">
+        <v>99.75996965098734</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV142" t="n">
+        <v>98.43270166453311</v>
+      </c>
+      <c r="BW142" t="n">
+        <v>97.18235154394301</v>
+      </c>
+      <c r="BX142" t="n">
+        <v>99.8949307479231</v>
+      </c>
+      <c r="BY142" t="n">
         <v>9.27591253966062</v>
       </c>
-      <c r="BT142" t="n">
+      <c r="BZ142" t="n">
         <v>25</v>
+      </c>
+      <c r="CA142" t="n">
+        <v>-1.327267986454231</v>
       </c>
     </row>
     <row r="143">
@@ -31657,31 +34653,52 @@
         <v>33.09332541567704</v>
       </c>
       <c r="BL143" t="n">
+        <v>24.9846260387812</v>
+      </c>
+      <c r="BM143" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="BM143" t="n">
+      <c r="BN143" t="n">
         <v>2.809999999999999</v>
       </c>
-      <c r="BN143" t="n">
+      <c r="BO143" t="n">
         <v>7.700000000000003</v>
       </c>
-      <c r="BO143" t="n">
+      <c r="BP143" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BP143" t="n">
+      <c r="BQ143" t="n">
         <v>9</v>
       </c>
-      <c r="BQ143" t="n">
+      <c r="BR143" t="n">
         <v>22.90144157814863</v>
       </c>
-      <c r="BR143" t="n">
+      <c r="BS143" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="BS143" t="n">
+      <c r="BT143" t="n">
+        <v>99.78015174506929</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV143" t="n">
+        <v>92.62102432778536</v>
+      </c>
+      <c r="BW143" t="n">
+        <v>86.4836817102138</v>
+      </c>
+      <c r="BX143" t="n">
+        <v>99.79193905817223</v>
+      </c>
+      <c r="BY143" t="n">
         <v>6.447918216986039</v>
       </c>
-      <c r="BT143" t="n">
+      <c r="BZ143" t="n">
         <v>25</v>
+      </c>
+      <c r="CA143" t="n">
+        <v>-7.159127417283926</v>
       </c>
     </row>
   </sheetData>
